--- a/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_Rider.xlsx
+++ b/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_Rider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="875" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="875" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Function List" sheetId="8" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="294">
   <si>
     <t>và vị trí bạn đang đứng, có thể di chuyển vị trí đang đứng để xác định vị trí Taxi đón</t>
   </si>
@@ -1386,6 +1386,30 @@
   </si>
   <si>
     <t>MRD09</t>
+  </si>
+  <si>
+    <t>Expired Date</t>
+  </si>
+  <si>
+    <t>Ngày Hết Hạn</t>
+  </si>
+  <si>
+    <t>Tháng</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Năm</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Năm hết hạn của thẻ tín dụng</t>
+  </si>
+  <si>
+    <t>Tháng hết hạn của thẻ tín dụng</t>
   </si>
 </sst>
 </file>
@@ -2393,6 +2417,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2492,21 +2528,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2534,17 +2555,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3252,13 +3276,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3267,8 +3291,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1428750" y="1285875"/>
-          <a:ext cx="1266825" cy="209550"/>
+          <a:off x="1428750" y="1285874"/>
+          <a:ext cx="1371600" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3311,16 +3335,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3328,9 +3352,74 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3038475" y="1857375"/>
+          <a:ext cx="561975" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Thêm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Flowchart: Process 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828925" y="1552575"/>
-          <a:ext cx="561975" cy="171450"/>
+          <a:off x="2857500" y="1285874"/>
+          <a:ext cx="771525" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3362,75 +3451,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" sz="800" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Thêm</a:t>
+            <a:t>CVV</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Flowchart: Process 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2809875" y="1285875"/>
-          <a:ext cx="561975" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3496,6 +3523,214 @@
             </a:rPr>
             <a:t>i</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Flowchart: Process 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447801" y="1562099"/>
+          <a:ext cx="647700" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Month</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Flowchart: Process 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143126" y="1562099"/>
+          <a:ext cx="647700" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Year</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Flowchart: Process 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867024" y="1562100"/>
+          <a:ext cx="771525" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Postal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Code</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5186,7 +5421,7 @@
       <c r="A3" s="58">
         <v>1</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="104" t="s">
         <v>113</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -5207,7 +5442,7 @@
       <c r="A4" s="58">
         <v>2</v>
       </c>
-      <c r="B4" s="101"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
       <c r="E4" s="58"/>
@@ -5220,7 +5455,7 @@
       <c r="A5" s="58">
         <v>3</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
       <c r="E5" s="58"/>
@@ -5228,7 +5463,7 @@
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="58"/>
-      <c r="B6" s="101"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="58"/>
       <c r="D6" s="58"/>
       <c r="E6" s="58"/>
@@ -5236,7 +5471,7 @@
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="58"/>
-      <c r="B7" s="101"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
       <c r="E7" s="58"/>
@@ -5244,7 +5479,7 @@
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="58"/>
-      <c r="B8" s="101"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
       <c r="E8" s="58"/>
@@ -5252,7 +5487,7 @@
     </row>
     <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="58"/>
-      <c r="B9" s="101"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
       <c r="E9" s="58"/>
@@ -5260,7 +5495,7 @@
     </row>
     <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="58"/>
-      <c r="B10" s="101"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="58"/>
       <c r="D10" s="58"/>
       <c r="E10" s="58"/>
@@ -5268,7 +5503,7 @@
     </row>
     <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="58"/>
-      <c r="B11" s="101"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
@@ -5276,7 +5511,7 @@
     </row>
     <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="58"/>
-      <c r="B12" s="102"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
       <c r="E12" s="58"/>
@@ -5430,8 +5665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5449,15 +5684,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
@@ -5665,32 +5900,60 @@
       <c r="B13" s="19">
         <v>8</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>195</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="19">
-        <v>9</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+        <v>8.1</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
+      <c r="G14" s="20">
+        <v>2</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="B15" s="19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="G15" s="20">
+        <v>4</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
@@ -5999,10 +6262,10 @@
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="121"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="40" t="s">
         <v>27</v>
       </c>
@@ -6181,15 +6444,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
@@ -6780,43 +7043,43 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
       <c r="L4" s="47"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="46"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="47"/>
     </row>
     <row r="6" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="46"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
       <c r="L6" s="47"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -7136,50 +7399,50 @@
       <c r="B32" s="69">
         <v>1</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C32" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="119"/>
-      <c r="T32" s="119"/>
-      <c r="U32" s="119"/>
-      <c r="V32" s="119"/>
-      <c r="W32" s="119"/>
-      <c r="X32" s="119"/>
-      <c r="Y32" s="119"/>
-      <c r="Z32" s="119"/>
-      <c r="AA32" s="119"/>
-      <c r="AB32" s="119"/>
-      <c r="AC32" s="119"/>
-      <c r="AD32" s="119"/>
-      <c r="AE32" s="119"/>
-      <c r="AF32" s="119"/>
-      <c r="AG32" s="119"/>
-      <c r="AH32" s="119"/>
-      <c r="AI32" s="119"/>
-      <c r="AJ32" s="119"/>
-      <c r="AK32" s="119"/>
-      <c r="AL32" s="119"/>
-      <c r="AM32" s="119"/>
-      <c r="AN32" s="119"/>
-      <c r="AO32" s="119"/>
-      <c r="AP32" s="119"/>
-      <c r="AQ32" s="119"/>
-      <c r="AR32" s="120"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="123"/>
+      <c r="T32" s="123"/>
+      <c r="U32" s="123"/>
+      <c r="V32" s="123"/>
+      <c r="W32" s="123"/>
+      <c r="X32" s="123"/>
+      <c r="Y32" s="123"/>
+      <c r="Z32" s="123"/>
+      <c r="AA32" s="123"/>
+      <c r="AB32" s="123"/>
+      <c r="AC32" s="123"/>
+      <c r="AD32" s="123"/>
+      <c r="AE32" s="123"/>
+      <c r="AF32" s="123"/>
+      <c r="AG32" s="123"/>
+      <c r="AH32" s="123"/>
+      <c r="AI32" s="123"/>
+      <c r="AJ32" s="123"/>
+      <c r="AK32" s="123"/>
+      <c r="AL32" s="123"/>
+      <c r="AM32" s="123"/>
+      <c r="AN32" s="123"/>
+      <c r="AO32" s="123"/>
+      <c r="AP32" s="123"/>
+      <c r="AQ32" s="123"/>
+      <c r="AR32" s="124"/>
     </row>
     <row r="33" spans="1:44" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
@@ -7755,15 +8018,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
@@ -8342,19 +8605,19 @@
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125" t="s">
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
@@ -8372,27 +8635,27 @@
     </row>
     <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="46"/>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
       <c r="F5" s="89"/>
-      <c r="G5" s="128" t="s">
+      <c r="G5" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
       <c r="M5" s="47"/>
     </row>
     <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="46"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
       <c r="F6" s="89"/>
       <c r="G6" s="89"/>
       <c r="H6" s="89"/>
@@ -8404,18 +8667,18 @@
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="46"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
       <c r="F7" s="41"/>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="133" t="s">
         <v>182</v>
       </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
       <c r="M7" s="47"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8542,18 +8805,18 @@
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="46"/>
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="124"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="128"/>
       <c r="M16" s="49"/>
     </row>
     <row r="17" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8572,18 +8835,18 @@
     </row>
     <row r="18" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="46"/>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="138" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="131"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="135"/>
       <c r="M18" s="49"/>
     </row>
     <row r="19" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8635,17 +8898,17 @@
       <c r="C22" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="130" t="s">
+      <c r="D22" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="131"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="135"/>
       <c r="M22" s="49"/>
     </row>
     <row r="23" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8653,17 +8916,17 @@
       <c r="C23" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="132" t="s">
+      <c r="D23" s="136" t="s">
         <v>191</v>
       </c>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="133"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="137"/>
       <c r="M23" s="47"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
@@ -8775,51 +9038,51 @@
       <c r="B33" s="69">
         <v>1</v>
       </c>
-      <c r="C33" s="118" t="s">
+      <c r="C33" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="119"/>
-      <c r="K33" s="119"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="119"/>
-      <c r="T33" s="119"/>
-      <c r="U33" s="119"/>
-      <c r="V33" s="119"/>
-      <c r="W33" s="119"/>
-      <c r="X33" s="119"/>
-      <c r="Y33" s="119"/>
-      <c r="Z33" s="119"/>
-      <c r="AA33" s="119"/>
-      <c r="AB33" s="119"/>
-      <c r="AC33" s="119"/>
-      <c r="AD33" s="119"/>
-      <c r="AE33" s="119"/>
-      <c r="AF33" s="119"/>
-      <c r="AG33" s="119"/>
-      <c r="AH33" s="119"/>
-      <c r="AI33" s="119"/>
-      <c r="AJ33" s="119"/>
-      <c r="AK33" s="119"/>
-      <c r="AL33" s="119"/>
-      <c r="AM33" s="119"/>
-      <c r="AN33" s="119"/>
-      <c r="AO33" s="119"/>
-      <c r="AP33" s="119"/>
-      <c r="AQ33" s="119"/>
-      <c r="AR33" s="119"/>
-      <c r="AS33" s="120"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="123"/>
+      <c r="T33" s="123"/>
+      <c r="U33" s="123"/>
+      <c r="V33" s="123"/>
+      <c r="W33" s="123"/>
+      <c r="X33" s="123"/>
+      <c r="Y33" s="123"/>
+      <c r="Z33" s="123"/>
+      <c r="AA33" s="123"/>
+      <c r="AB33" s="123"/>
+      <c r="AC33" s="123"/>
+      <c r="AD33" s="123"/>
+      <c r="AE33" s="123"/>
+      <c r="AF33" s="123"/>
+      <c r="AG33" s="123"/>
+      <c r="AH33" s="123"/>
+      <c r="AI33" s="123"/>
+      <c r="AJ33" s="123"/>
+      <c r="AK33" s="123"/>
+      <c r="AL33" s="123"/>
+      <c r="AM33" s="123"/>
+      <c r="AN33" s="123"/>
+      <c r="AO33" s="123"/>
+      <c r="AP33" s="123"/>
+      <c r="AQ33" s="123"/>
+      <c r="AR33" s="123"/>
+      <c r="AS33" s="124"/>
     </row>
     <row r="34" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
@@ -9415,15 +9678,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
@@ -10097,23 +10360,23 @@
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="129" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125" t="s">
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129" t="s">
         <v>257</v>
       </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
-      <c r="C4" s="137"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="89"/>
       <c r="E4" s="89"/>
       <c r="F4" s="89"/>
@@ -10128,17 +10391,17 @@
     <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="46"/>
       <c r="C5" s="88"/>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="101" t="s">
         <v>232</v>
       </c>
       <c r="E5" s="88"/>
       <c r="F5" s="89"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
       <c r="M5" s="47"/>
     </row>
     <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10158,23 +10421,23 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="46"/>
       <c r="C7" s="88"/>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="101" t="s">
         <v>237</v>
       </c>
       <c r="E7" s="88"/>
       <c r="F7" s="41"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
       <c r="M7" s="47"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="46"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="102" t="s">
         <v>236</v>
       </c>
       <c r="E8" s="2"/>
@@ -10204,7 +10467,7 @@
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="139" t="s">
+      <c r="D10" s="102" t="s">
         <v>234</v>
       </c>
       <c r="E10" s="2"/>
@@ -10233,186 +10496,186 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="46"/>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="139" t="s">
         <v>235</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="142"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="141"/>
       <c r="M12" s="49"/>
     </row>
     <row r="13" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="145"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="144"/>
       <c r="M13" s="49"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="46"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="145"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="144"/>
       <c r="M14" s="49"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="46"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="145"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="144"/>
       <c r="M15" s="49"/>
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="46"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="145"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="144"/>
       <c r="M16" s="49"/>
     </row>
     <row r="17" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="46"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="145"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="144"/>
       <c r="M17" s="49"/>
     </row>
     <row r="18" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="46"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="145"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="144"/>
       <c r="M18" s="49"/>
     </row>
     <row r="19" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="46"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="145"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="144"/>
       <c r="M19" s="49"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B20" s="46"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="145"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="144"/>
       <c r="M20" s="49"/>
     </row>
     <row r="21" spans="1:45" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="46"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="145"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="144"/>
       <c r="M21" s="49"/>
     </row>
     <row r="22" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="46"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="145"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="144"/>
       <c r="M22" s="49"/>
     </row>
     <row r="23" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="46"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="145"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="144"/>
       <c r="M23" s="47"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B24" s="46"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="148"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="147"/>
       <c r="M24" s="47"/>
     </row>
     <row r="25" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10510,51 +10773,51 @@
       <c r="B33" s="69">
         <v>1</v>
       </c>
-      <c r="C33" s="118" t="s">
+      <c r="C33" s="122" t="s">
         <v>253</v>
       </c>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="119"/>
-      <c r="K33" s="119"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="119"/>
-      <c r="T33" s="119"/>
-      <c r="U33" s="119"/>
-      <c r="V33" s="119"/>
-      <c r="W33" s="119"/>
-      <c r="X33" s="119"/>
-      <c r="Y33" s="119"/>
-      <c r="Z33" s="119"/>
-      <c r="AA33" s="119"/>
-      <c r="AB33" s="119"/>
-      <c r="AC33" s="119"/>
-      <c r="AD33" s="119"/>
-      <c r="AE33" s="119"/>
-      <c r="AF33" s="119"/>
-      <c r="AG33" s="119"/>
-      <c r="AH33" s="119"/>
-      <c r="AI33" s="119"/>
-      <c r="AJ33" s="119"/>
-      <c r="AK33" s="119"/>
-      <c r="AL33" s="119"/>
-      <c r="AM33" s="119"/>
-      <c r="AN33" s="119"/>
-      <c r="AO33" s="119"/>
-      <c r="AP33" s="119"/>
-      <c r="AQ33" s="119"/>
-      <c r="AR33" s="119"/>
-      <c r="AS33" s="120"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="123"/>
+      <c r="T33" s="123"/>
+      <c r="U33" s="123"/>
+      <c r="V33" s="123"/>
+      <c r="W33" s="123"/>
+      <c r="X33" s="123"/>
+      <c r="Y33" s="123"/>
+      <c r="Z33" s="123"/>
+      <c r="AA33" s="123"/>
+      <c r="AB33" s="123"/>
+      <c r="AC33" s="123"/>
+      <c r="AD33" s="123"/>
+      <c r="AE33" s="123"/>
+      <c r="AF33" s="123"/>
+      <c r="AG33" s="123"/>
+      <c r="AH33" s="123"/>
+      <c r="AI33" s="123"/>
+      <c r="AJ33" s="123"/>
+      <c r="AK33" s="123"/>
+      <c r="AL33" s="123"/>
+      <c r="AM33" s="123"/>
+      <c r="AN33" s="123"/>
+      <c r="AO33" s="123"/>
+      <c r="AP33" s="123"/>
+      <c r="AQ33" s="123"/>
+      <c r="AR33" s="123"/>
+      <c r="AS33" s="124"/>
     </row>
     <row r="34" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
@@ -11146,15 +11409,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
@@ -11767,19 +12030,19 @@
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="129" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="151" t="s">
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="148" t="s">
         <v>275</v>
       </c>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="152"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="149"/>
     </row>
     <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
@@ -11797,20 +12060,20 @@
     </row>
     <row r="5" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="46"/>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="152" t="s">
         <v>273</v>
       </c>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
       <c r="M5" s="47"/>
     </row>
     <row r="6" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11829,20 +12092,20 @@
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="46"/>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
       <c r="M7" s="47"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -11959,16 +12222,16 @@
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="46"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="150"/>
       <c r="M16" s="49"/>
     </row>
     <row r="17" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11987,16 +12250,16 @@
     </row>
     <row r="18" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="46"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
       <c r="M18" s="49"/>
     </row>
     <row r="19" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12044,29 +12307,29 @@
     <row r="22" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="46"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
       <c r="M22" s="49"/>
     </row>
     <row r="23" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="46"/>
       <c r="C23" s="41"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="133"/>
       <c r="M23" s="47"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
@@ -12178,51 +12441,51 @@
       <c r="B33" s="69">
         <v>1</v>
       </c>
-      <c r="C33" s="118" t="s">
+      <c r="C33" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="119"/>
-      <c r="K33" s="119"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="119"/>
-      <c r="T33" s="119"/>
-      <c r="U33" s="119"/>
-      <c r="V33" s="119"/>
-      <c r="W33" s="119"/>
-      <c r="X33" s="119"/>
-      <c r="Y33" s="119"/>
-      <c r="Z33" s="119"/>
-      <c r="AA33" s="119"/>
-      <c r="AB33" s="119"/>
-      <c r="AC33" s="119"/>
-      <c r="AD33" s="119"/>
-      <c r="AE33" s="119"/>
-      <c r="AF33" s="119"/>
-      <c r="AG33" s="119"/>
-      <c r="AH33" s="119"/>
-      <c r="AI33" s="119"/>
-      <c r="AJ33" s="119"/>
-      <c r="AK33" s="119"/>
-      <c r="AL33" s="119"/>
-      <c r="AM33" s="119"/>
-      <c r="AN33" s="119"/>
-      <c r="AO33" s="119"/>
-      <c r="AP33" s="119"/>
-      <c r="AQ33" s="119"/>
-      <c r="AR33" s="119"/>
-      <c r="AS33" s="120"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="123"/>
+      <c r="T33" s="123"/>
+      <c r="U33" s="123"/>
+      <c r="V33" s="123"/>
+      <c r="W33" s="123"/>
+      <c r="X33" s="123"/>
+      <c r="Y33" s="123"/>
+      <c r="Z33" s="123"/>
+      <c r="AA33" s="123"/>
+      <c r="AB33" s="123"/>
+      <c r="AC33" s="123"/>
+      <c r="AD33" s="123"/>
+      <c r="AE33" s="123"/>
+      <c r="AF33" s="123"/>
+      <c r="AG33" s="123"/>
+      <c r="AH33" s="123"/>
+      <c r="AI33" s="123"/>
+      <c r="AJ33" s="123"/>
+      <c r="AK33" s="123"/>
+      <c r="AL33" s="123"/>
+      <c r="AM33" s="123"/>
+      <c r="AN33" s="123"/>
+      <c r="AO33" s="123"/>
+      <c r="AP33" s="123"/>
+      <c r="AQ33" s="123"/>
+      <c r="AR33" s="123"/>
+      <c r="AS33" s="124"/>
     </row>
     <row r="34" spans="1:45" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
@@ -12778,8 +13041,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="D22:L22"/>
     <mergeCell ref="D23:L23"/>
     <mergeCell ref="C33:AS33"/>
     <mergeCell ref="D5:L5"/>
@@ -12787,6 +13048,8 @@
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="D22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13091,7 +13354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -13110,15 +13373,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
@@ -13763,196 +14026,196 @@
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
       <c r="K4" s="47"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="46"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="47"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="46"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
       <c r="K6" s="47"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="46"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
       <c r="K7" s="47"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="46"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
       <c r="K8" s="47"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="46"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
       <c r="K9" s="47"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
       <c r="K10" s="47"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="46"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
       <c r="K11" s="48"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="46"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
       <c r="K12" s="49"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="46"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
       <c r="K13" s="48"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="46"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
       <c r="K14" s="49"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="46"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
       <c r="K15" s="49"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="46"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
       <c r="K16" s="49"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B17" s="46"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
       <c r="K17" s="49"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B18" s="46"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
       <c r="K18" s="49"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B19" s="46"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
       <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -14681,15 +14944,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
@@ -15258,40 +15521,40 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
       <c r="K4" s="47"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="46"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
       <c r="K5" s="47"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="46"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
       <c r="K6" s="47"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -15337,11 +15600,11 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
       <c r="K10" s="48"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15366,11 +15629,11 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="114"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
       <c r="K12" s="48"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -16182,15 +16445,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
@@ -16788,43 +17051,43 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="47"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="46"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
       <c r="L5" s="47"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="46"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
       <c r="L6" s="47"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16848,11 +17111,11 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="111"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="115"/>
       <c r="L8" s="48"/>
     </row>
     <row r="9" spans="2:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16876,11 +17139,11 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="118"/>
       <c r="L10" s="48"/>
     </row>
     <row r="11" spans="2:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17772,15 +18035,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
@@ -18342,8 +18605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AR44"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18404,43 +18667,43 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="46"/>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
       <c r="L4" s="47"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="46"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="47"/>
     </row>
     <row r="6" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="46"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
       <c r="L6" s="47"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -18486,7 +18749,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="49"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -18499,9 +18762,11 @@
       <c r="K10" s="82"/>
       <c r="L10" s="48"/>
     </row>
-    <row r="11" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -18760,50 +19025,50 @@
       <c r="B32" s="69">
         <v>1</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C32" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="119"/>
-      <c r="T32" s="119"/>
-      <c r="U32" s="119"/>
-      <c r="V32" s="119"/>
-      <c r="W32" s="119"/>
-      <c r="X32" s="119"/>
-      <c r="Y32" s="119"/>
-      <c r="Z32" s="119"/>
-      <c r="AA32" s="119"/>
-      <c r="AB32" s="119"/>
-      <c r="AC32" s="119"/>
-      <c r="AD32" s="119"/>
-      <c r="AE32" s="119"/>
-      <c r="AF32" s="119"/>
-      <c r="AG32" s="119"/>
-      <c r="AH32" s="119"/>
-      <c r="AI32" s="119"/>
-      <c r="AJ32" s="119"/>
-      <c r="AK32" s="119"/>
-      <c r="AL32" s="119"/>
-      <c r="AM32" s="119"/>
-      <c r="AN32" s="119"/>
-      <c r="AO32" s="119"/>
-      <c r="AP32" s="119"/>
-      <c r="AQ32" s="119"/>
-      <c r="AR32" s="120"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="123"/>
+      <c r="T32" s="123"/>
+      <c r="U32" s="123"/>
+      <c r="V32" s="123"/>
+      <c r="W32" s="123"/>
+      <c r="X32" s="123"/>
+      <c r="Y32" s="123"/>
+      <c r="Z32" s="123"/>
+      <c r="AA32" s="123"/>
+      <c r="AB32" s="123"/>
+      <c r="AC32" s="123"/>
+      <c r="AD32" s="123"/>
+      <c r="AE32" s="123"/>
+      <c r="AF32" s="123"/>
+      <c r="AG32" s="123"/>
+      <c r="AH32" s="123"/>
+      <c r="AI32" s="123"/>
+      <c r="AJ32" s="123"/>
+      <c r="AK32" s="123"/>
+      <c r="AL32" s="123"/>
+      <c r="AM32" s="123"/>
+      <c r="AN32" s="123"/>
+      <c r="AO32" s="123"/>
+      <c r="AP32" s="123"/>
+      <c r="AQ32" s="123"/>
+      <c r="AR32" s="124"/>
     </row>
     <row r="33" spans="1:44" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>

--- a/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_Rider.xlsx
+++ b/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_Rider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="875" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="875"/>
   </bookViews>
   <sheets>
     <sheet name="Function List" sheetId="8" r:id="rId1"/>
@@ -17,21 +17,21 @@
     <sheet name="01.Rider-Start" sheetId="18" r:id="rId3"/>
     <sheet name="Rider-Start Definition" sheetId="19" r:id="rId4"/>
     <sheet name="02.Rider-Login" sheetId="5" r:id="rId5"/>
-    <sheet name="Rider-Login Definition" sheetId="6" r:id="rId6"/>
+    <sheet name="02.Rider-Login Def" sheetId="6" r:id="rId6"/>
     <sheet name="03.Rider-Register" sheetId="11" r:id="rId7"/>
-    <sheet name="Rider-Register Definition" sheetId="7" r:id="rId8"/>
+    <sheet name="03.Rider-Register Def" sheetId="7" r:id="rId8"/>
     <sheet name="04.Rider-RegisterPayment" sheetId="12" r:id="rId9"/>
-    <sheet name="Rider-RegisterPaymen Definition" sheetId="13" r:id="rId10"/>
+    <sheet name="04.Rider-RegisterPaymen Def" sheetId="13" r:id="rId10"/>
     <sheet name="05.Rider-Home" sheetId="1" r:id="rId11"/>
-    <sheet name="Rider-Home Definition" sheetId="3" r:id="rId12"/>
+    <sheet name="05.Rider-Home Definition" sheetId="3" r:id="rId12"/>
     <sheet name="06.Rider- Terms" sheetId="14" r:id="rId13"/>
     <sheet name="Rider-Terms Definition" sheetId="15" r:id="rId14"/>
     <sheet name="07.Rider- Profile" sheetId="16" r:id="rId15"/>
-    <sheet name="Rider-Profile Definition" sheetId="17" r:id="rId16"/>
+    <sheet name="Rider-Profile Def" sheetId="17" r:id="rId16"/>
     <sheet name="08.Rider-ChangeAddress" sheetId="20" r:id="rId17"/>
-    <sheet name="Rider-ChangeAddr Definition" sheetId="21" r:id="rId18"/>
+    <sheet name="08.Rider-ChangeAddr Def" sheetId="21" r:id="rId18"/>
     <sheet name="09.Rider-Promotion" sheetId="22" r:id="rId19"/>
-    <sheet name="09.Promotion Definition" sheetId="23" r:id="rId20"/>
+    <sheet name="09.Promotion Def" sheetId="23" r:id="rId20"/>
     <sheet name="Note" sheetId="2" r:id="rId21"/>
   </sheets>
   <externalReferences>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="350">
   <si>
     <t>và vị trí bạn đang đứng, có thể di chuyển vị trí đang đứng để xác định vị trí Taxi đón</t>
   </si>
@@ -390,16 +390,7 @@
     <t>UC0101</t>
   </si>
   <si>
-    <t>Search Drivers</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
     <t>Function No = UC + &lt;two digits of Group function no&gt;  + &lt;two digits of Function No&gt;</t>
-  </si>
-  <si>
-    <t>Rider Management</t>
   </si>
   <si>
     <t>Business Rules</t>
@@ -1010,9 +1001,6 @@
     <t>Login with Facebook</t>
   </si>
   <si>
-    <t>TÀI KHOẢN ĐÃ KẾT NỐI</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Thêm Công Việc                                          &gt;</t>
   </si>
   <si>
@@ -1044,18 +1032,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sang trang sửa hồ sơ </t>
-  </si>
-  <si>
-    <t>Kết nối Spotify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Kết nối Spotify</t>
-  </si>
-  <si>
-    <t>Connect to Spotify</t>
-  </si>
-  <si>
-    <t>Link to Spotify</t>
   </si>
   <si>
     <t>Hiển thị mật khẩu bằng các dấu "*"</t>
@@ -1693,6 +1669,105 @@
       </rPr>
       <t>nếu người dùng tap vao vị trí bất kỳ trên màn hình ngoài vị trí của bar, thì taskbar này biến mất</t>
     </r>
+  </si>
+  <si>
+    <t>MRD06</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Nội dung điều khoản sử dụng</t>
+  </si>
+  <si>
+    <t>Mobile Rider's Functions</t>
+  </si>
+  <si>
+    <t>NOTE:</t>
+  </si>
+  <si>
+    <t>Doer</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>UC0102</t>
+  </si>
+  <si>
+    <t>UC0103</t>
+  </si>
+  <si>
+    <t>UC0104</t>
+  </si>
+  <si>
+    <t>UC0105</t>
+  </si>
+  <si>
+    <t>UC0106</t>
+  </si>
+  <si>
+    <t>UC0107</t>
+  </si>
+  <si>
+    <t>UC0108</t>
+  </si>
+  <si>
+    <t>UC0109</t>
+  </si>
+  <si>
+    <t>UC0110</t>
+  </si>
+  <si>
+    <t>UC0111</t>
+  </si>
+  <si>
+    <t>UC0112</t>
+  </si>
+  <si>
+    <t>UC0113</t>
+  </si>
+  <si>
+    <t>UC0114</t>
+  </si>
+  <si>
+    <t>Rider</t>
+  </si>
+  <si>
+    <t>Register a new Rider</t>
+  </si>
+  <si>
+    <t>Anonymous</t>
+  </si>
+  <si>
+    <t>Request a Taxi</t>
+  </si>
+  <si>
+    <t>Display Nearest Available Taxi</t>
+  </si>
+  <si>
+    <t>View Rider's Profile</t>
+  </si>
+  <si>
+    <t>Edit Rider Profile</t>
+  </si>
+  <si>
+    <t>Change Rider's Home Address</t>
+  </si>
+  <si>
+    <t>Change Rider's Office Address</t>
+  </si>
+  <si>
+    <t>Change Rider's Payment Method</t>
+  </si>
+  <si>
+    <t>Man hinh giống màn hình đăng ký payment methods</t>
+  </si>
+  <si>
+    <t>Tuấn, Đạo</t>
   </si>
 </sst>
 </file>
@@ -2780,6 +2855,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2840,14 +2951,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2880,9 +3027,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2921,83 +3065,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5295,13 +5366,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5484,13 +5555,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5611,13 +5682,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5629,71 +5700,6 @@
         <a:xfrm>
           <a:off x="685799" y="3676650"/>
           <a:ext cx="257175" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="700" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>i</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Flowchart: Process 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="2600325"/>
-          <a:ext cx="266700" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6664,10 +6670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6675,271 +6681,443 @@
     <col min="1" max="1" width="3.85546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="10"/>
     <col min="3" max="3" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="10" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="7" max="8" width="9.140625" style="10"/>
+    <col min="9" max="9" width="26.42578125" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B3" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C3" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D3" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E3" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F3" s="55" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
+      <c r="G3" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56">
         <v>1</v>
       </c>
-      <c r="B3" s="104" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="56" t="s">
+      <c r="B4" s="126" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="56"/>
-      <c r="H3" s="57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="56">
+      <c r="D4" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" s="56"/>
+      <c r="G4" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="H4" s="186"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="56">
         <v>2</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="H4" s="58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="56">
+      <c r="B5" s="127"/>
+      <c r="C5" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="H5" s="187"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="56">
         <v>3</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>338</v>
+      </c>
       <c r="F6" s="56"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G6" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>338</v>
+      </c>
       <c r="F7" s="56"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G7" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>338</v>
+      </c>
       <c r="F8" s="56"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G8" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>344</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>338</v>
+      </c>
       <c r="F9" s="56"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G9" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>338</v>
+      </c>
       <c r="F10" s="56"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G10" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>338</v>
+      </c>
       <c r="F11" s="56"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G11" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>338</v>
+      </c>
       <c r="F12" s="56"/>
-    </row>
-    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G12" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="188" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="56" t="s">
+        <v>333</v>
+      </c>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="56"/>
       <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
+      <c r="C14" s="56" t="s">
+        <v>334</v>
+      </c>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="56"/>
       <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
+      <c r="C15" s="56" t="s">
+        <v>335</v>
+      </c>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
       <c r="F15" s="56"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="56"/>
       <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
+      <c r="C16" s="56" t="s">
+        <v>336</v>
+      </c>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="56"/>
       <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
+      <c r="C17" s="56" t="s">
+        <v>337</v>
+      </c>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="56"/>
       <c r="B18" s="56"/>
       <c r="C18" s="56"/>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="56"/>
       <c r="B19" s="56"/>
       <c r="C19" s="56"/>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="56"/>
       <c r="B20" s="56"/>
       <c r="C20" s="56"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="56"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="56"/>
       <c r="B22" s="56"/>
       <c r="C22" s="56"/>
       <c r="D22" s="56"/>
       <c r="E22" s="56"/>
       <c r="F22" s="56"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="56"/>
       <c r="B23" s="56"/>
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="56"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="56"/>
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
       <c r="D25" s="56"/>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
       <c r="B26" s="56"/>
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
       <c r="B27" s="56"/>
       <c r="C27" s="56"/>
       <c r="D27" s="56"/>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="56"/>
       <c r="C28" s="56"/>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
-    </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="56"/>
       <c r="C29" s="56"/>
       <c r="D29" s="56"/>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B4:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6968,15 +7146,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -6997,7 +7175,7 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="53" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -7055,10 +7233,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>21</v>
@@ -7070,7 +7248,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -7078,10 +7256,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>31</v>
@@ -7093,7 +7271,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -7114,7 +7292,7 @@
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -7122,10 +7300,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>97</v>
@@ -7135,7 +7313,7 @@
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -7164,10 +7342,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>97</v>
@@ -7177,7 +7355,7 @@
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -7185,13 +7363,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -7202,10 +7380,10 @@
         <v>8.1</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>21</v>
@@ -7215,7 +7393,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -7223,10 +7401,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>21</v>
@@ -7236,7 +7414,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -7530,8 +7708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7554,15 +7732,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="D2" s="153"/>
-      <c r="G2" s="153" t="s">
-        <v>294</v>
+      <c r="D2" s="104"/>
+      <c r="G2" s="104" t="s">
+        <v>286</v>
       </c>
       <c r="L2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="R2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7570,10 +7748,10 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="125"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="38" t="s">
         <v>27</v>
       </c>
@@ -7590,45 +7768,45 @@
       <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="125" t="s">
+      <c r="L4" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="125"/>
+      <c r="M4" s="147"/>
       <c r="N4" s="38" t="s">
         <v>27</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="125" t="s">
+      <c r="R4" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="125"/>
+      <c r="S4" s="147"/>
       <c r="T4" s="38" t="s">
         <v>27</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="125" t="s">
+      <c r="X4" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="125"/>
+      <c r="Y4" s="147"/>
       <c r="Z4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AG4" s="188" t="s">
+      <c r="AG4" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="AH4" s="125"/>
-      <c r="AI4" s="125" t="s">
+      <c r="AH4" s="147"/>
+      <c r="AI4" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="AJ4" s="125"/>
-      <c r="AK4" s="125" t="s">
+      <c r="AJ4" s="147"/>
+      <c r="AK4" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="AL4" s="187"/>
+      <c r="AL4" s="148"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -7662,11 +7840,11 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="3"/>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="140" t="s">
+      <c r="AH5" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="AI5" s="140"/>
-      <c r="AJ5" s="140"/>
+      <c r="AI5" s="156"/>
+      <c r="AJ5" s="156"/>
       <c r="AK5" s="103"/>
       <c r="AL5" s="3"/>
     </row>
@@ -7720,14 +7898,14 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="3"/>
       <c r="AG7" s="1"/>
-      <c r="AH7" s="184" t="s">
-        <v>297</v>
-      </c>
-      <c r="AI7" s="158" t="s">
-        <v>299</v>
-      </c>
-      <c r="AJ7" s="159"/>
-      <c r="AK7" s="160"/>
+      <c r="AH7" s="123" t="s">
+        <v>289</v>
+      </c>
+      <c r="AI7" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="AJ7" s="110"/>
+      <c r="AK7" s="111"/>
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -7752,16 +7930,16 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="3"/>
       <c r="AG8" s="1"/>
-      <c r="AH8" s="185" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI8" s="158" t="s">
-        <v>300</v>
-      </c>
-      <c r="AJ8" s="159"/>
-      <c r="AK8" s="160"/>
+      <c r="AH8" s="124" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI8" s="109" t="s">
+        <v>292</v>
+      </c>
+      <c r="AJ8" s="110"/>
+      <c r="AK8" s="111"/>
       <c r="AL8" s="3"/>
-      <c r="AO8" s="186"/>
+      <c r="AO8" s="125"/>
       <c r="AP8" s="6"/>
       <c r="AQ8" s="6"/>
       <c r="AR8" s="6"/>
@@ -7793,7 +7971,7 @@
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="3"/>
-      <c r="AO9" s="186"/>
+      <c r="AO9" s="125"/>
       <c r="AP9" s="6"/>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6"/>
@@ -7819,12 +7997,12 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="3"/>
-      <c r="AB10" s="172" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC10" s="173"/>
-      <c r="AD10" s="173"/>
-      <c r="AE10" s="174"/>
+      <c r="AB10" s="150" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC10" s="151"/>
+      <c r="AD10" s="151"/>
+      <c r="AE10" s="152"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
@@ -7899,7 +8077,7 @@
       <c r="Z12" s="3"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="3"/>
@@ -7964,11 +8142,11 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="3"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="170" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD14" s="171" t="s">
-        <v>309</v>
+      <c r="AC14" s="114" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD14" s="115" t="s">
+        <v>301</v>
       </c>
       <c r="AE14" s="3"/>
       <c r="AG14" s="1"/>
@@ -8015,28 +8193,28 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
-      <c r="F16" s="154" t="s">
-        <v>296</v>
-      </c>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="156"/>
+      <c r="F16" s="105" t="s">
+        <v>288</v>
+      </c>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="107"/>
       <c r="K16" s="1"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="3"/>
-      <c r="Q16" s="154" t="s">
-        <v>296</v>
-      </c>
-      <c r="R16" s="155"/>
-      <c r="S16" s="155"/>
-      <c r="T16" s="156"/>
-      <c r="W16" s="154" t="s">
-        <v>296</v>
-      </c>
-      <c r="X16" s="155"/>
-      <c r="Y16" s="155"/>
-      <c r="Z16" s="156"/>
+      <c r="Q16" s="105" t="s">
+        <v>288</v>
+      </c>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="107"/>
+      <c r="W16" s="105" t="s">
+        <v>288</v>
+      </c>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="107"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
@@ -8053,34 +8231,34 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
-      <c r="F17" s="157" t="s">
-        <v>297</v>
-      </c>
-      <c r="G17" s="158" t="s">
-        <v>299</v>
-      </c>
-      <c r="H17" s="159"/>
-      <c r="I17" s="164"/>
+      <c r="F17" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="G17" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="H17" s="110"/>
+      <c r="I17" s="112"/>
       <c r="K17" s="1"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="3"/>
-      <c r="Q17" s="157" t="s">
-        <v>297</v>
-      </c>
-      <c r="R17" s="158" t="s">
-        <v>299</v>
-      </c>
-      <c r="S17" s="159"/>
-      <c r="T17" s="164"/>
-      <c r="W17" s="157" t="s">
-        <v>297</v>
-      </c>
-      <c r="X17" s="158" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y17" s="159"/>
-      <c r="Z17" s="164"/>
+      <c r="Q17" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="R17" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="S17" s="110"/>
+      <c r="T17" s="112"/>
+      <c r="W17" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="X17" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y17" s="110"/>
+      <c r="Z17" s="112"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
@@ -8093,34 +8271,34 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
-      <c r="F18" s="157" t="s">
-        <v>298</v>
-      </c>
-      <c r="G18" s="158" t="s">
-        <v>300</v>
-      </c>
-      <c r="H18" s="159"/>
-      <c r="I18" s="164"/>
+      <c r="F18" s="108" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" s="109" t="s">
+        <v>292</v>
+      </c>
+      <c r="H18" s="110"/>
+      <c r="I18" s="112"/>
       <c r="K18" s="1"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="3"/>
-      <c r="Q18" s="157" t="s">
-        <v>298</v>
-      </c>
-      <c r="R18" s="158" t="s">
-        <v>300</v>
-      </c>
-      <c r="S18" s="159"/>
-      <c r="T18" s="164"/>
-      <c r="W18" s="157" t="s">
-        <v>298</v>
-      </c>
-      <c r="X18" s="158" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y18" s="159"/>
-      <c r="Z18" s="164"/>
+      <c r="Q18" s="108" t="s">
+        <v>290</v>
+      </c>
+      <c r="R18" s="109" t="s">
+        <v>292</v>
+      </c>
+      <c r="S18" s="110"/>
+      <c r="T18" s="112"/>
+      <c r="W18" s="108" t="s">
+        <v>290</v>
+      </c>
+      <c r="X18" s="109" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y18" s="110"/>
+      <c r="Z18" s="112"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
@@ -8133,28 +8311,28 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
-      <c r="F19" s="157" t="s">
-        <v>304</v>
-      </c>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="156"/>
+      <c r="F19" s="108" t="s">
+        <v>296</v>
+      </c>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="107"/>
       <c r="K19" s="1"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="3"/>
-      <c r="Q19" s="157" t="s">
-        <v>304</v>
-      </c>
-      <c r="R19" s="155"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="156"/>
-      <c r="W19" s="157" t="s">
-        <v>304</v>
-      </c>
-      <c r="X19" s="155"/>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="156"/>
+      <c r="Q19" s="108" t="s">
+        <v>296</v>
+      </c>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="107"/>
+      <c r="W19" s="108" t="s">
+        <v>296</v>
+      </c>
+      <c r="X19" s="106"/>
+      <c r="Y19" s="106"/>
+      <c r="Z19" s="107"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
@@ -8164,40 +8342,40 @@
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="3"/>
-      <c r="F20" s="177" t="s">
-        <v>311</v>
-      </c>
-      <c r="G20" s="178"/>
-      <c r="H20" s="181" t="s">
-        <v>310</v>
-      </c>
-      <c r="I20" s="166"/>
+      <c r="F20" s="118" t="s">
+        <v>303</v>
+      </c>
+      <c r="G20" s="119"/>
+      <c r="H20" s="153" t="s">
+        <v>302</v>
+      </c>
+      <c r="I20" s="154"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="163" t="s">
+      <c r="L20" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="163"/>
+      <c r="M20" s="162"/>
       <c r="N20" s="3"/>
-      <c r="Q20" s="161" t="s">
-        <v>302</v>
-      </c>
-      <c r="R20" s="165"/>
-      <c r="S20" s="165"/>
-      <c r="T20" s="166"/>
-      <c r="W20" s="161" t="s">
-        <v>303</v>
-      </c>
-      <c r="X20" s="165"/>
-      <c r="Y20" s="165"/>
-      <c r="Z20" s="166"/>
+      <c r="Q20" s="157" t="s">
+        <v>294</v>
+      </c>
+      <c r="R20" s="158"/>
+      <c r="S20" s="158"/>
+      <c r="T20" s="154"/>
+      <c r="W20" s="157" t="s">
+        <v>295</v>
+      </c>
+      <c r="X20" s="158"/>
+      <c r="Y20" s="158"/>
+      <c r="Z20" s="154"/>
       <c r="AG20" s="1"/>
-      <c r="AH20" s="182"/>
-      <c r="AI20" s="182"/>
-      <c r="AJ20" s="182"/>
-      <c r="AK20" s="183"/>
+      <c r="AH20" s="155"/>
+      <c r="AI20" s="155"/>
+      <c r="AJ20" s="155"/>
+      <c r="AK20" s="122"/>
       <c r="AL20" s="3"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8205,24 +8383,24 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
-      <c r="F21" s="180" t="s">
-        <v>312</v>
-      </c>
-      <c r="G21" s="179"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="176"/>
+      <c r="F21" s="121" t="s">
+        <v>304</v>
+      </c>
+      <c r="G21" s="120"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="117"/>
       <c r="K21" s="7"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
-      <c r="Q21" s="162"/>
-      <c r="R21" s="167"/>
-      <c r="S21" s="167"/>
-      <c r="T21" s="168"/>
-      <c r="W21" s="162"/>
-      <c r="X21" s="167"/>
-      <c r="Y21" s="167"/>
-      <c r="Z21" s="168"/>
+      <c r="Q21" s="159"/>
+      <c r="R21" s="160"/>
+      <c r="S21" s="160"/>
+      <c r="T21" s="161"/>
+      <c r="W21" s="159"/>
+      <c r="X21" s="160"/>
+      <c r="Y21" s="160"/>
+      <c r="Z21" s="161"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
@@ -8237,23 +8415,23 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B23" s="153" t="s">
-        <v>321</v>
-      </c>
-      <c r="G23" s="153" t="s">
-        <v>320</v>
-      </c>
-      <c r="L23" s="153" t="s">
-        <v>319</v>
-      </c>
-      <c r="R23" s="153" t="s">
-        <v>318</v>
-      </c>
-      <c r="X23" s="153" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH23" s="153" t="s">
-        <v>316</v>
+      <c r="B23" s="104" t="s">
+        <v>313</v>
+      </c>
+      <c r="G23" s="104" t="s">
+        <v>312</v>
+      </c>
+      <c r="L23" s="104" t="s">
+        <v>311</v>
+      </c>
+      <c r="R23" s="104" t="s">
+        <v>310</v>
+      </c>
+      <c r="X23" s="104" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH23" s="104" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
@@ -8283,7 +8461,7 @@
     <row r="29" spans="1:46" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="59"/>
       <c r="B29" s="60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -8307,7 +8485,7 @@
     <row r="30" spans="1:46" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="59"/>
       <c r="B30" s="63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>20</v>
@@ -8362,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -8414,7 +8592,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="71" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
@@ -8466,7 +8644,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="73" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D33" s="68"/>
       <c r="E33" s="68"/>
@@ -8518,7 +8696,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="74" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -8570,7 +8748,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -8622,7 +8800,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -8674,7 +8852,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="74" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -8962,6 +9140,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AG4:AH4"/>
     <mergeCell ref="AB10:AE10"/>
@@ -8975,7 +9154,6 @@
     <mergeCell ref="W20:Z21"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8988,7 +9166,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9006,15 +9184,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -9544,7 +9722,7 @@
   <dimension ref="A2:AR44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9605,43 +9783,43 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -9662,7 +9840,7 @@
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="44"/>
       <c r="C8" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -9885,7 +10063,7 @@
     <row r="30" spans="1:44" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="59"/>
       <c r="B30" s="60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -9909,7 +10087,7 @@
     <row r="31" spans="1:44" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
       <c r="B31" s="63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>20</v>
@@ -9961,50 +10139,50 @@
       <c r="B32" s="67">
         <v>1</v>
       </c>
-      <c r="C32" s="122" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="123"/>
-      <c r="T32" s="123"/>
-      <c r="U32" s="123"/>
-      <c r="V32" s="123"/>
-      <c r="W32" s="123"/>
-      <c r="X32" s="123"/>
-      <c r="Y32" s="123"/>
-      <c r="Z32" s="123"/>
-      <c r="AA32" s="123"/>
-      <c r="AB32" s="123"/>
-      <c r="AC32" s="123"/>
-      <c r="AD32" s="123"/>
-      <c r="AE32" s="123"/>
-      <c r="AF32" s="123"/>
-      <c r="AG32" s="123"/>
-      <c r="AH32" s="123"/>
-      <c r="AI32" s="123"/>
-      <c r="AJ32" s="123"/>
-      <c r="AK32" s="123"/>
-      <c r="AL32" s="123"/>
-      <c r="AM32" s="123"/>
-      <c r="AN32" s="123"/>
-      <c r="AO32" s="123"/>
-      <c r="AP32" s="123"/>
-      <c r="AQ32" s="123"/>
-      <c r="AR32" s="124"/>
+      <c r="C32" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="145"/>
+      <c r="Q32" s="145"/>
+      <c r="R32" s="145"/>
+      <c r="S32" s="145"/>
+      <c r="T32" s="145"/>
+      <c r="U32" s="145"/>
+      <c r="V32" s="145"/>
+      <c r="W32" s="145"/>
+      <c r="X32" s="145"/>
+      <c r="Y32" s="145"/>
+      <c r="Z32" s="145"/>
+      <c r="AA32" s="145"/>
+      <c r="AB32" s="145"/>
+      <c r="AC32" s="145"/>
+      <c r="AD32" s="145"/>
+      <c r="AE32" s="145"/>
+      <c r="AF32" s="145"/>
+      <c r="AG32" s="145"/>
+      <c r="AH32" s="145"/>
+      <c r="AI32" s="145"/>
+      <c r="AJ32" s="145"/>
+      <c r="AK32" s="145"/>
+      <c r="AL32" s="145"/>
+      <c r="AM32" s="145"/>
+      <c r="AN32" s="145"/>
+      <c r="AO32" s="145"/>
+      <c r="AP32" s="145"/>
+      <c r="AQ32" s="145"/>
+      <c r="AR32" s="146"/>
     </row>
     <row r="33" spans="1:44" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
@@ -10012,7 +10190,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D33" s="71"/>
       <c r="E33" s="71"/>
@@ -10062,7 +10240,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="73" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
@@ -10112,7 +10290,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -10562,7 +10740,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10580,15 +10758,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -10596,7 +10774,7 @@
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -10609,7 +10787,7 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="53" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -10667,10 +10845,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>156</v>
+        <v>318</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>157</v>
+        <v>319</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>21</v>
@@ -10678,119 +10856,67 @@
       <c r="F7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="19">
-        <v>20</v>
+      <c r="G7" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>158</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="18">
         <v>3</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="19">
-        <v>20</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>161</v>
-      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="18">
         <v>4</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="21" t="s">
-        <v>162</v>
-      </c>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="18">
         <v>5</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
-        <v>163</v>
-      </c>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="18">
         <v>6</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="18">
         <v>7</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="20" t="s">
-        <v>166</v>
-      </c>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="18">
@@ -11112,10 +11238,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AS45"/>
+  <dimension ref="A2:AS44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11163,23 +11289,23 @@
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
-      <c r="E3" s="129" t="s">
+      <c r="E3" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="130"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="164"/>
     </row>
     <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
@@ -11197,27 +11323,27 @@
     </row>
     <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="131" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
+      <c r="C5" s="165" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
       <c r="F5" s="87"/>
-      <c r="G5" s="132" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
+      <c r="G5" s="166" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="87"/>
@@ -11229,24 +11355,24 @@
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="44"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="133" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
+      <c r="G7" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
       <c r="M7" s="45"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="44"/>
       <c r="C8" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -11306,7 +11432,7 @@
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="44"/>
       <c r="C12" s="74" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -11322,7 +11448,7 @@
     <row r="13" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="44"/>
       <c r="C13" s="74" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -11351,9 +11477,7 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="44"/>
-      <c r="C15" s="6" t="s">
-        <v>190</v>
-      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -11365,55 +11489,55 @@
       <c r="L15" s="80"/>
       <c r="M15" s="47"/>
     </row>
-    <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="44"/>
-      <c r="C16" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="128"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
       <c r="M16" s="47"/>
     </row>
-    <row r="17" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="44"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
+      <c r="C17" s="172" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="168"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="168"/>
+      <c r="L17" s="169"/>
       <c r="M17" s="47"/>
     </row>
-    <row r="18" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="44"/>
-      <c r="C18" s="138" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="135"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="47"/>
     </row>
-    <row r="19" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B19" s="44"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -11425,11 +11549,9 @@
       <c r="L19" s="2"/>
       <c r="M19" s="47"/>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="44"/>
-      <c r="C20" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -11441,231 +11563,268 @@
       <c r="L20" s="2"/>
       <c r="M20" s="47"/>
     </row>
-    <row r="21" spans="1:45" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="44"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="C21" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="168"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="168"/>
+      <c r="L21" s="169"/>
       <c r="M21" s="47"/>
     </row>
-    <row r="22" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="44"/>
-      <c r="C22" s="97" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="134" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="47"/>
-    </row>
-    <row r="23" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="170" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="45"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
-      <c r="C23" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="136" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="137"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="39"/>
       <c r="M23" s="45"/>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B24" s="44"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="45"/>
-    </row>
-    <row r="25" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="50"/>
-    </row>
-    <row r="31" spans="1:45" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="50"/>
+    </row>
+    <row r="30" spans="1:45" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
+      <c r="B30" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30" s="61"/>
+      <c r="T30"/>
+      <c r="U30" s="61"/>
+    </row>
+    <row r="31" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
-      <c r="B31" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31" s="61"/>
-      <c r="T31"/>
-      <c r="U31" s="61"/>
-    </row>
-    <row r="32" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="64"/>
+      <c r="AE31" s="64"/>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="64"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="64"/>
+      <c r="AK31" s="64"/>
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="64"/>
+      <c r="AN31" s="64"/>
+      <c r="AO31" s="64"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="64"/>
+      <c r="AR31" s="64"/>
+      <c r="AS31" s="66"/>
+    </row>
+    <row r="32" spans="1:45" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
-      <c r="B32" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="64"/>
-      <c r="AC32" s="64"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="64"/>
-      <c r="AK32" s="64"/>
-      <c r="AL32" s="64"/>
-      <c r="AM32" s="64"/>
-      <c r="AN32" s="64"/>
-      <c r="AO32" s="64"/>
-      <c r="AP32" s="64"/>
-      <c r="AQ32" s="64"/>
-      <c r="AR32" s="64"/>
-      <c r="AS32" s="66"/>
-    </row>
-    <row r="33" spans="1:45" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="67">
+        <v>1</v>
+      </c>
+      <c r="C32" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="145"/>
+      <c r="Q32" s="145"/>
+      <c r="R32" s="145"/>
+      <c r="S32" s="145"/>
+      <c r="T32" s="145"/>
+      <c r="U32" s="145"/>
+      <c r="V32" s="145"/>
+      <c r="W32" s="145"/>
+      <c r="X32" s="145"/>
+      <c r="Y32" s="145"/>
+      <c r="Z32" s="145"/>
+      <c r="AA32" s="145"/>
+      <c r="AB32" s="145"/>
+      <c r="AC32" s="145"/>
+      <c r="AD32" s="145"/>
+      <c r="AE32" s="145"/>
+      <c r="AF32" s="145"/>
+      <c r="AG32" s="145"/>
+      <c r="AH32" s="145"/>
+      <c r="AI32" s="145"/>
+      <c r="AJ32" s="145"/>
+      <c r="AK32" s="145"/>
+      <c r="AL32" s="145"/>
+      <c r="AM32" s="145"/>
+      <c r="AN32" s="145"/>
+      <c r="AO32" s="145"/>
+      <c r="AP32" s="145"/>
+      <c r="AQ32" s="145"/>
+      <c r="AR32" s="145"/>
+      <c r="AS32" s="146"/>
+    </row>
+    <row r="33" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
-      <c r="B33" s="67">
-        <v>1</v>
-      </c>
-      <c r="C33" s="122" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="123"/>
-      <c r="U33" s="123"/>
-      <c r="V33" s="123"/>
-      <c r="W33" s="123"/>
-      <c r="X33" s="123"/>
-      <c r="Y33" s="123"/>
-      <c r="Z33" s="123"/>
-      <c r="AA33" s="123"/>
-      <c r="AB33" s="123"/>
-      <c r="AC33" s="123"/>
-      <c r="AD33" s="123"/>
-      <c r="AE33" s="123"/>
-      <c r="AF33" s="123"/>
-      <c r="AG33" s="123"/>
-      <c r="AH33" s="123"/>
-      <c r="AI33" s="123"/>
-      <c r="AJ33" s="123"/>
-      <c r="AK33" s="123"/>
-      <c r="AL33" s="123"/>
-      <c r="AM33" s="123"/>
-      <c r="AN33" s="123"/>
-      <c r="AO33" s="123"/>
-      <c r="AP33" s="123"/>
-      <c r="AQ33" s="123"/>
-      <c r="AR33" s="123"/>
-      <c r="AS33" s="124"/>
+      <c r="B33" s="70">
+        <v>2</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="68"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="68"/>
+      <c r="AF33" s="68"/>
+      <c r="AG33" s="68"/>
+      <c r="AH33" s="68"/>
+      <c r="AI33" s="68"/>
+      <c r="AJ33" s="68"/>
+      <c r="AK33" s="68"/>
+      <c r="AL33" s="68"/>
+      <c r="AM33" s="68"/>
+      <c r="AN33" s="68"/>
+      <c r="AO33" s="68"/>
+      <c r="AP33" s="68"/>
+      <c r="AQ33" s="68"/>
+      <c r="AR33" s="68"/>
+      <c r="AS33" s="69"/>
     </row>
     <row r="34" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
-      <c r="B34" s="70">
-        <v>2</v>
-      </c>
-      <c r="C34" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="72"/>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -11700,13 +11859,13 @@
     <row r="35" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="59"/>
       <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
+        <v>4</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -11750,12 +11909,8 @@
     </row>
     <row r="36" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
-      <c r="B36" s="1">
-        <v>4</v>
-      </c>
-      <c r="C36" s="74" t="s">
-        <v>152</v>
-      </c>
+      <c r="B36" s="75"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -11801,16 +11956,16 @@
     </row>
     <row r="37" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="59"/>
-      <c r="B37" s="75"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="74"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -11848,16 +12003,16 @@
     </row>
     <row r="38" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="59"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="76"/>
       <c r="C38" s="74"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -11895,7 +12050,7 @@
     </row>
     <row r="39" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59"/>
-      <c r="B39" s="76"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="74"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -11942,8 +12097,8 @@
     </row>
     <row r="40" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="59"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="74"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -11952,7 +12107,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="L40" s="68"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -11999,7 +12154,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="68"/>
+      <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -12081,135 +12236,87 @@
       <c r="AR42" s="68"/>
       <c r="AS42" s="69"/>
     </row>
-    <row r="43" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" s="62" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="59"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="68"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="68"/>
-      <c r="V43" s="68"/>
-      <c r="W43" s="68"/>
-      <c r="X43" s="68"/>
-      <c r="Y43" s="68"/>
-      <c r="Z43" s="68"/>
-      <c r="AA43" s="68"/>
-      <c r="AB43" s="68"/>
-      <c r="AC43" s="68"/>
-      <c r="AD43" s="68"/>
-      <c r="AE43" s="68"/>
-      <c r="AF43" s="68"/>
-      <c r="AG43" s="68"/>
-      <c r="AH43" s="68"/>
-      <c r="AI43" s="68"/>
-      <c r="AJ43" s="68"/>
-      <c r="AK43" s="68"/>
-      <c r="AL43" s="68"/>
-      <c r="AM43" s="68"/>
-      <c r="AN43" s="68"/>
-      <c r="AO43" s="68"/>
-      <c r="AP43" s="68"/>
-      <c r="AQ43" s="68"/>
-      <c r="AR43" s="68"/>
-      <c r="AS43" s="69"/>
-    </row>
-    <row r="44" spans="1:45" s="62" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="77"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="78"/>
+      <c r="T43" s="78"/>
+      <c r="U43" s="78"/>
+      <c r="V43" s="78"/>
+      <c r="W43" s="78"/>
+      <c r="X43" s="78"/>
+      <c r="Y43" s="78"/>
+      <c r="Z43" s="78"/>
+      <c r="AA43" s="78"/>
+      <c r="AB43" s="78"/>
+      <c r="AC43" s="78"/>
+      <c r="AD43" s="78"/>
+      <c r="AE43" s="78"/>
+      <c r="AF43" s="78"/>
+      <c r="AG43" s="78"/>
+      <c r="AH43" s="78"/>
+      <c r="AI43" s="78"/>
+      <c r="AJ43" s="78"/>
+      <c r="AK43" s="78"/>
+      <c r="AL43" s="78"/>
+      <c r="AM43" s="78"/>
+      <c r="AN43" s="78"/>
+      <c r="AO43" s="78"/>
+      <c r="AP43" s="78"/>
+      <c r="AQ43" s="78"/>
+      <c r="AR43" s="78"/>
+      <c r="AS43" s="79"/>
+    </row>
+    <row r="44" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="59"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="78"/>
-      <c r="T44" s="78"/>
-      <c r="U44" s="78"/>
-      <c r="V44" s="78"/>
-      <c r="W44" s="78"/>
-      <c r="X44" s="78"/>
-      <c r="Y44" s="78"/>
-      <c r="Z44" s="78"/>
-      <c r="AA44" s="78"/>
-      <c r="AB44" s="78"/>
-      <c r="AC44" s="78"/>
-      <c r="AD44" s="78"/>
-      <c r="AE44" s="78"/>
-      <c r="AF44" s="78"/>
-      <c r="AG44" s="78"/>
-      <c r="AH44" s="78"/>
-      <c r="AI44" s="78"/>
-      <c r="AJ44" s="78"/>
-      <c r="AK44" s="78"/>
-      <c r="AL44" s="78"/>
-      <c r="AM44" s="78"/>
-      <c r="AN44" s="78"/>
-      <c r="AO44" s="78"/>
-      <c r="AP44" s="78"/>
-      <c r="AQ44" s="78"/>
-      <c r="AR44" s="78"/>
-      <c r="AS44" s="79"/>
-    </row>
-    <row r="45" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45" s="68"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="68"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C33:AS33"/>
+  <mergeCells count="9">
+    <mergeCell ref="C32:AS32"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="C5:E7"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="G7:L7"/>
+    <mergeCell ref="D21:L21"/>
     <mergeCell ref="D22:L22"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="C17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12219,10 +12326,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12240,15 +12347,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -12269,7 +12376,7 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="53" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -12304,13 +12411,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>22</v>
@@ -12327,10 +12434,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>97</v>
@@ -12342,7 +12449,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -12350,10 +12457,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>97</v>
@@ -12365,7 +12472,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -12376,10 +12483,10 @@
         <v>74</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>23</v>
@@ -12388,7 +12495,7 @@
         <v>23</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -12396,13 +12503,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>23</v>
@@ -12411,7 +12518,7 @@
         <v>23</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -12425,7 +12532,7 @@
         <v>73</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>23</v>
@@ -12434,7 +12541,7 @@
         <v>23</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -12442,13 +12549,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>23</v>
@@ -12457,7 +12564,7 @@
         <v>23</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -12471,7 +12578,7 @@
         <v>90</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>23</v>
@@ -12480,7 +12587,7 @@
         <v>23</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -12488,13 +12595,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>204</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>23</v>
@@ -12511,13 +12618,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>23</v>
@@ -12526,7 +12633,7 @@
         <v>23</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -12534,13 +12641,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>23</v>
@@ -12549,7 +12656,7 @@
         <v>23</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -12557,13 +12664,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>23</v>
@@ -12572,31 +12679,17 @@
         <v>23</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="18">
-        <v>13</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>223</v>
-      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="18"/>
@@ -12661,154 +12754,156 @@
       <c r="G25" s="19"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="28" t="s">
+    <row r="26" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C30" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D30" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="30">
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="30">
         <v>0</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C31" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D31" s="31" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="36">
+    <row r="34" spans="2:8" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="36">
         <v>3</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C34" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D34" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E34" s="37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36">
+    <row r="35" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>4</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C35" t="s">
         <v>35</v>
       </c>
-      <c r="D36"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="10">
+        <v>4</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="10">
-        <v>7</v>
-      </c>
-      <c r="C40" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="34" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C41" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D41" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="43" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>54</v>
+      <c r="B43" s="10">
+        <v>2</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="D43" t="s">
         <v>55</v>
@@ -12816,10 +12911,10 @@
     </row>
     <row r="44" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
         <v>55</v>
@@ -12827,23 +12922,12 @@
     </row>
     <row r="45" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="10">
-        <v>4</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -12863,7 +12947,7 @@
   <dimension ref="A1:AS45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12912,29 +12996,29 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
-      <c r="E3" s="129" t="s">
-        <v>238</v>
-      </c>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129" t="s">
-        <v>257</v>
-      </c>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="130"/>
+      <c r="E3" s="163" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="164"/>
     </row>
     <row r="4" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
@@ -12954,16 +13038,16 @@
       <c r="B5" s="44"/>
       <c r="C5" s="86"/>
       <c r="D5" s="99" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E5" s="86"/>
       <c r="F5" s="87"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12984,23 +13068,23 @@
       <c r="B7" s="44"/>
       <c r="C7" s="86"/>
       <c r="D7" s="99" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E7" s="86"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
       <c r="M7" s="45"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="44"/>
       <c r="C8" s="2"/>
       <c r="D8" s="100" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -13030,7 +13114,7 @@
       <c r="B10" s="44"/>
       <c r="C10" s="2"/>
       <c r="D10" s="100" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -13058,186 +13142,186 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="44"/>
-      <c r="C12" s="139" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="141"/>
+      <c r="C12" s="173" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="174"/>
       <c r="M12" s="47"/>
     </row>
     <row r="13" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="44"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="144"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="177"/>
       <c r="M13" s="47"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="44"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="144"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="177"/>
       <c r="M14" s="47"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="44"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="144"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="177"/>
       <c r="M15" s="47"/>
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="44"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="144"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="177"/>
       <c r="M16" s="47"/>
     </row>
     <row r="17" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="44"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="144"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="177"/>
       <c r="M17" s="47"/>
     </row>
     <row r="18" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="44"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="144"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="177"/>
       <c r="M18" s="47"/>
     </row>
     <row r="19" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="44"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="144"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="176"/>
+      <c r="K19" s="176"/>
+      <c r="L19" s="177"/>
       <c r="M19" s="47"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B20" s="44"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="144"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="176"/>
+      <c r="K20" s="176"/>
+      <c r="L20" s="177"/>
       <c r="M20" s="47"/>
     </row>
     <row r="21" spans="1:45" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="44"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="144"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="177"/>
       <c r="M21" s="47"/>
     </row>
     <row r="22" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="44"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="144"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="176"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="177"/>
       <c r="M22" s="47"/>
     </row>
     <row r="23" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="144"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="176"/>
+      <c r="H23" s="176"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="176"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="177"/>
       <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B24" s="44"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="147"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="180"/>
       <c r="M24" s="45"/>
     </row>
     <row r="25" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13257,7 +13341,7 @@
     <row r="31" spans="1:45" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="59"/>
       <c r="B31" s="60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -13282,7 +13366,7 @@
     <row r="32" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
       <c r="B32" s="63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="64" t="s">
         <v>20</v>
@@ -13335,51 +13419,51 @@
       <c r="B33" s="67">
         <v>1</v>
       </c>
-      <c r="C33" s="122" t="s">
-        <v>253</v>
-      </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="123"/>
-      <c r="U33" s="123"/>
-      <c r="V33" s="123"/>
-      <c r="W33" s="123"/>
-      <c r="X33" s="123"/>
-      <c r="Y33" s="123"/>
-      <c r="Z33" s="123"/>
-      <c r="AA33" s="123"/>
-      <c r="AB33" s="123"/>
-      <c r="AC33" s="123"/>
-      <c r="AD33" s="123"/>
-      <c r="AE33" s="123"/>
-      <c r="AF33" s="123"/>
-      <c r="AG33" s="123"/>
-      <c r="AH33" s="123"/>
-      <c r="AI33" s="123"/>
-      <c r="AJ33" s="123"/>
-      <c r="AK33" s="123"/>
-      <c r="AL33" s="123"/>
-      <c r="AM33" s="123"/>
-      <c r="AN33" s="123"/>
-      <c r="AO33" s="123"/>
-      <c r="AP33" s="123"/>
-      <c r="AQ33" s="123"/>
-      <c r="AR33" s="123"/>
-      <c r="AS33" s="124"/>
+      <c r="C33" s="144" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="145"/>
+      <c r="Q33" s="145"/>
+      <c r="R33" s="145"/>
+      <c r="S33" s="145"/>
+      <c r="T33" s="145"/>
+      <c r="U33" s="145"/>
+      <c r="V33" s="145"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="145"/>
+      <c r="AC33" s="145"/>
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="145"/>
+      <c r="AG33" s="145"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="145"/>
+      <c r="AJ33" s="145"/>
+      <c r="AK33" s="145"/>
+      <c r="AL33" s="145"/>
+      <c r="AM33" s="145"/>
+      <c r="AN33" s="145"/>
+      <c r="AO33" s="145"/>
+      <c r="AP33" s="145"/>
+      <c r="AQ33" s="145"/>
+      <c r="AR33" s="145"/>
+      <c r="AS33" s="146"/>
     </row>
     <row r="34" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
@@ -13387,7 +13471,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D34" s="71"/>
       <c r="E34" s="71"/>
@@ -13438,7 +13522,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="73" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D35" s="68"/>
       <c r="E35" s="68"/>
@@ -13489,7 +13573,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -13971,15 +14055,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -14000,7 +14084,7 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="53" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -14035,13 +14119,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>22</v>
@@ -14058,10 +14142,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>97</v>
@@ -14073,7 +14157,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -14081,10 +14165,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>97</v>
@@ -14096,7 +14180,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -14104,10 +14188,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>21</v>
@@ -14119,7 +14203,7 @@
         <v>30</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -14127,10 +14211,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>21</v>
@@ -14142,7 +14226,7 @@
         <v>50</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -14150,10 +14234,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>21</v>
@@ -14171,10 +14255,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>21</v>
@@ -14192,10 +14276,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>21</v>
@@ -14213,7 +14297,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>52</v>
@@ -14228,7 +14312,7 @@
         <v>23</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -14540,7 +14624,7 @@
   <dimension ref="A2:AS45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14588,23 +14672,23 @@
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
-      <c r="E3" s="129" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="149" t="s">
-        <v>275</v>
-      </c>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="150"/>
+      <c r="E3" s="163" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="182" t="s">
+        <v>267</v>
+      </c>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="183"/>
     </row>
     <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
@@ -14623,19 +14707,19 @@
     <row r="5" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
       <c r="C5" s="101" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="148" t="s">
-        <v>273</v>
-      </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
+        <v>177</v>
+      </c>
+      <c r="D5" s="181" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14655,19 +14739,19 @@
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="44"/>
       <c r="C7" s="101" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="133" t="s">
-        <v>274</v>
-      </c>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
+        <v>177</v>
+      </c>
+      <c r="D7" s="167" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
       <c r="M7" s="45"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -14784,16 +14868,16 @@
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="44"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="184"/>
+      <c r="K16" s="184"/>
+      <c r="L16" s="184"/>
       <c r="M16" s="47"/>
     </row>
     <row r="17" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14812,16 +14896,16 @@
     </row>
     <row r="18" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="44"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="152"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="185"/>
       <c r="M18" s="47"/>
     </row>
     <row r="19" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14869,29 +14953,29 @@
     <row r="22" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="44"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="185"/>
+      <c r="K22" s="185"/>
+      <c r="L22" s="185"/>
       <c r="M22" s="47"/>
     </row>
     <row r="23" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
       <c r="C23" s="39"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
       <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
@@ -14925,7 +15009,7 @@
     <row r="31" spans="1:45" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="59"/>
       <c r="B31" s="60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -14950,7 +15034,7 @@
     <row r="32" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
       <c r="B32" s="63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="64" t="s">
         <v>20</v>
@@ -15003,51 +15087,51 @@
       <c r="B33" s="67">
         <v>1</v>
       </c>
-      <c r="C33" s="122" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="123"/>
-      <c r="U33" s="123"/>
-      <c r="V33" s="123"/>
-      <c r="W33" s="123"/>
-      <c r="X33" s="123"/>
-      <c r="Y33" s="123"/>
-      <c r="Z33" s="123"/>
-      <c r="AA33" s="123"/>
-      <c r="AB33" s="123"/>
-      <c r="AC33" s="123"/>
-      <c r="AD33" s="123"/>
-      <c r="AE33" s="123"/>
-      <c r="AF33" s="123"/>
-      <c r="AG33" s="123"/>
-      <c r="AH33" s="123"/>
-      <c r="AI33" s="123"/>
-      <c r="AJ33" s="123"/>
-      <c r="AK33" s="123"/>
-      <c r="AL33" s="123"/>
-      <c r="AM33" s="123"/>
-      <c r="AN33" s="123"/>
-      <c r="AO33" s="123"/>
-      <c r="AP33" s="123"/>
-      <c r="AQ33" s="123"/>
-      <c r="AR33" s="123"/>
-      <c r="AS33" s="124"/>
+      <c r="C33" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="145"/>
+      <c r="Q33" s="145"/>
+      <c r="R33" s="145"/>
+      <c r="S33" s="145"/>
+      <c r="T33" s="145"/>
+      <c r="U33" s="145"/>
+      <c r="V33" s="145"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="145"/>
+      <c r="AC33" s="145"/>
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="145"/>
+      <c r="AG33" s="145"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="145"/>
+      <c r="AJ33" s="145"/>
+      <c r="AK33" s="145"/>
+      <c r="AL33" s="145"/>
+      <c r="AM33" s="145"/>
+      <c r="AN33" s="145"/>
+      <c r="AO33" s="145"/>
+      <c r="AP33" s="145"/>
+      <c r="AQ33" s="145"/>
+      <c r="AR33" s="145"/>
+      <c r="AS33" s="146"/>
     </row>
     <row r="34" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
@@ -15055,7 +15139,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D34" s="71"/>
       <c r="E34" s="71"/>
@@ -15106,7 +15190,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="73" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D35" s="68"/>
       <c r="E35" s="68"/>
@@ -15157,7 +15241,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -15624,7 +15708,7 @@
   <dimension ref="A2:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15643,16 +15727,16 @@
         <v>14</v>
       </c>
       <c r="B2" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>119</v>
-      </c>
       <c r="D2" s="55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F2" s="55" t="s">
         <v>33</v>
@@ -15663,13 +15747,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="56" t="s">
-        <v>124</v>
-      </c>
       <c r="D3" s="56" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E3" s="56" t="s">
         <v>96</v>
@@ -15684,22 +15768,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C4" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>138</v>
-      </c>
       <c r="H4" s="58" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -15712,7 +15796,7 @@
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
       <c r="H5" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -15917,7 +16001,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15935,15 +16019,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -15951,7 +16035,7 @@
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -15964,7 +16048,7 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="53" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -15999,13 +16083,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>22</v>
@@ -16014,7 +16098,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -16022,10 +16106,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>97</v>
@@ -16037,7 +16121,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -16060,7 +16144,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -16068,10 +16152,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>21</v>
@@ -16083,7 +16167,7 @@
         <v>23</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -16091,7 +16175,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>20</v>
@@ -16106,7 +16190,7 @@
         <v>23</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -16114,10 +16198,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>97</v>
@@ -16129,7 +16213,7 @@
         <v>23</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -16137,10 +16221,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>97</v>
@@ -16152,7 +16236,7 @@
         <v>23</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -16526,8 +16610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AQ43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16575,7 +16659,7 @@
     <row r="3" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41"/>
       <c r="C3" s="42" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -16588,202 +16672,202 @@
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
-      <c r="C4" s="107" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
+      <c r="C4" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
       <c r="K5" s="45"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="44"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
       <c r="K7" s="45"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="44"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
       <c r="K8" s="45"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="44"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
       <c r="K9" s="45"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="44"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
       <c r="K10" s="45"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="44"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
       <c r="K11" s="46"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="44"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="44"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
       <c r="K13" s="46"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="44"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
       <c r="K14" s="47"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="44"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
       <c r="K15" s="47"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="44"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
       <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B17" s="44"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
       <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B18" s="44"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
       <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B19" s="44"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
       <c r="K19" s="45"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B20" s="44"/>
       <c r="C20" s="39" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
@@ -16792,7 +16876,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="39" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="K20" s="45"/>
     </row>
@@ -16835,7 +16919,7 @@
     <row r="29" spans="1:43" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="59"/>
       <c r="B29" s="60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -16858,7 +16942,7 @@
     <row r="30" spans="1:43" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="59"/>
       <c r="B30" s="63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>20</v>
@@ -16910,7 +16994,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -16959,7 +17043,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="71" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
@@ -17487,8 +17571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17506,15 +17590,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -17535,7 +17619,7 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="53" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -17593,10 +17677,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>21</v>
@@ -17612,10 +17696,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>21</v>
@@ -17631,10 +17715,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>97</v>
@@ -17644,7 +17728,7 @@
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="21" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -17652,10 +17736,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>97</v>
@@ -17665,7 +17749,7 @@
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="20" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -17673,10 +17757,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>97</v>
@@ -17686,7 +17770,7 @@
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="20" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -18023,7 +18107,7 @@
   <dimension ref="A2:AQ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18083,40 +18167,40 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
       <c r="K5" s="45"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -18162,11 +18246,11 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="137"/>
       <c r="K10" s="46"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18191,11 +18275,11 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="140"/>
       <c r="K12" s="46"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -18331,7 +18415,7 @@
     <row r="28" spans="1:43" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="59"/>
       <c r="B28" s="60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -18354,7 +18438,7 @@
     <row r="29" spans="1:43" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="59"/>
       <c r="B29" s="63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C29" s="64" t="s">
         <v>20</v>
@@ -18406,7 +18490,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -18455,7 +18539,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="71" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D31" s="71"/>
       <c r="E31" s="71"/>
@@ -19007,15 +19091,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -19143,7 +19227,7 @@
         <v>93</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>97</v>
@@ -19552,7 +19636,7 @@
   <dimension ref="A2:AR44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD43"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19613,43 +19697,43 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19668,16 +19752,16 @@
     <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="44"/>
       <c r="C8" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="115"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="137"/>
       <c r="L8" s="46"/>
     </row>
     <row r="9" spans="2:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19696,16 +19780,16 @@
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="44"/>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="118"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="140"/>
       <c r="L10" s="46"/>
     </row>
     <row r="11" spans="2:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19724,7 +19808,7 @@
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="44"/>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -19752,7 +19836,7 @@
     <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="44"/>
       <c r="C14" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -19780,7 +19864,7 @@
     <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="44"/>
       <c r="C16" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -19808,7 +19892,7 @@
     <row r="18" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="44"/>
       <c r="C18" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -19901,7 +19985,7 @@
     <row r="30" spans="1:44" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="59"/>
       <c r="B30" s="60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -19925,7 +20009,7 @@
     <row r="31" spans="1:44" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
       <c r="B31" s="63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>20</v>
@@ -19978,7 +20062,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -20028,7 +20112,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D33" s="71"/>
       <c r="E33" s="71"/>
@@ -20078,7 +20162,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="73" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
@@ -20128,7 +20212,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -20597,15 +20681,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -20730,10 +20814,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>21</v>
@@ -20745,7 +20829,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -20753,10 +20837,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>97</v>
@@ -20766,7 +20850,7 @@
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -20774,10 +20858,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>97</v>
@@ -20787,7 +20871,7 @@
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -20816,10 +20900,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>21</v>
@@ -20840,7 +20924,7 @@
         <v>74</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>21</v>
@@ -20858,10 +20942,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>21</v>
@@ -20873,7 +20957,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -21229,49 +21313,49 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="44"/>
       <c r="C7" s="86" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -21286,7 +21370,7 @@
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="44"/>
       <c r="C8" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -21327,7 +21411,7 @@
     <row r="11" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44"/>
       <c r="C11" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -21511,7 +21595,7 @@
     <row r="30" spans="1:44" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="59"/>
       <c r="B30" s="60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -21535,7 +21619,7 @@
     <row r="31" spans="1:44" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
       <c r="B31" s="63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>20</v>
@@ -21587,50 +21671,50 @@
       <c r="B32" s="67">
         <v>1</v>
       </c>
-      <c r="C32" s="122" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="123"/>
-      <c r="T32" s="123"/>
-      <c r="U32" s="123"/>
-      <c r="V32" s="123"/>
-      <c r="W32" s="123"/>
-      <c r="X32" s="123"/>
-      <c r="Y32" s="123"/>
-      <c r="Z32" s="123"/>
-      <c r="AA32" s="123"/>
-      <c r="AB32" s="123"/>
-      <c r="AC32" s="123"/>
-      <c r="AD32" s="123"/>
-      <c r="AE32" s="123"/>
-      <c r="AF32" s="123"/>
-      <c r="AG32" s="123"/>
-      <c r="AH32" s="123"/>
-      <c r="AI32" s="123"/>
-      <c r="AJ32" s="123"/>
-      <c r="AK32" s="123"/>
-      <c r="AL32" s="123"/>
-      <c r="AM32" s="123"/>
-      <c r="AN32" s="123"/>
-      <c r="AO32" s="123"/>
-      <c r="AP32" s="123"/>
-      <c r="AQ32" s="123"/>
-      <c r="AR32" s="124"/>
+      <c r="C32" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="145"/>
+      <c r="Q32" s="145"/>
+      <c r="R32" s="145"/>
+      <c r="S32" s="145"/>
+      <c r="T32" s="145"/>
+      <c r="U32" s="145"/>
+      <c r="V32" s="145"/>
+      <c r="W32" s="145"/>
+      <c r="X32" s="145"/>
+      <c r="Y32" s="145"/>
+      <c r="Z32" s="145"/>
+      <c r="AA32" s="145"/>
+      <c r="AB32" s="145"/>
+      <c r="AC32" s="145"/>
+      <c r="AD32" s="145"/>
+      <c r="AE32" s="145"/>
+      <c r="AF32" s="145"/>
+      <c r="AG32" s="145"/>
+      <c r="AH32" s="145"/>
+      <c r="AI32" s="145"/>
+      <c r="AJ32" s="145"/>
+      <c r="AK32" s="145"/>
+      <c r="AL32" s="145"/>
+      <c r="AM32" s="145"/>
+      <c r="AN32" s="145"/>
+      <c r="AO32" s="145"/>
+      <c r="AP32" s="145"/>
+      <c r="AQ32" s="145"/>
+      <c r="AR32" s="146"/>
     </row>
     <row r="33" spans="1:44" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
@@ -21638,7 +21722,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D33" s="71"/>
       <c r="E33" s="71"/>
@@ -21688,7 +21772,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="73" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
@@ -21738,7 +21822,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>

--- a/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_Rider.xlsx
+++ b/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_Rider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="875" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Function List" sheetId="8" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="357">
   <si>
     <t>và vị trí bạn đang đứng, có thể di chuyển vị trí đang đứng để xác định vị trí Taxi đón</t>
   </si>
@@ -1768,6 +1768,27 @@
   </si>
   <si>
     <t>Tuấn, Đạo</t>
+  </si>
+  <si>
+    <t>Hình-G</t>
+  </si>
+  <si>
+    <t>Cảm ơn bạn đã sử dụng dịch vụ của chúng tôi!</t>
+  </si>
+  <si>
+    <t>Phí đi xe</t>
+  </si>
+  <si>
+    <t>Khuyến mại: 10000VNĐ</t>
+  </si>
+  <si>
+    <t>Phí thanh toán: 100000VNĐ</t>
+  </si>
+  <si>
+    <t>110000VNĐ</t>
+  </si>
+  <si>
+    <t>Số hóa đơn:AD110, bạn có thể kiểm tra chi tiêt trên website</t>
   </si>
 </sst>
 </file>
@@ -2726,7 +2747,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2890,7 +2911,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3065,11 +3093,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5282,6 +5322,177 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="414944" cy="414528"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14154150" y="2447925"/>
+          <a:ext cx="414944" cy="414528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="414944" cy="414528"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15287625" y="2505075"/>
+          <a:ext cx="414944" cy="414528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="414944" cy="414528"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14506575" y="1190625"/>
+          <a:ext cx="414944" cy="414528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="7-Point Star 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14839951" y="2371725"/>
+          <a:ext cx="285750" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="star7">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6672,7 +6883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -6730,7 +6941,7 @@
       <c r="A4" s="56">
         <v>1</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="129" t="s">
         <v>321</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -6746,14 +6957,14 @@
       <c r="G4" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="H4" s="186"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="56">
         <v>2</v>
       </c>
-      <c r="B5" s="127"/>
+      <c r="B5" s="130"/>
       <c r="C5" s="56" t="s">
         <v>325</v>
       </c>
@@ -6767,14 +6978,14 @@
       <c r="G5" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="H5" s="187"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="56">
         <v>3</v>
       </c>
-      <c r="B6" s="127"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="56" t="s">
         <v>326</v>
       </c>
@@ -6793,7 +7004,7 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
-      <c r="B7" s="127"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="56" t="s">
         <v>327</v>
       </c>
@@ -6812,7 +7023,7 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
-      <c r="B8" s="127"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="56" t="s">
         <v>328</v>
       </c>
@@ -6831,7 +7042,7 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
-      <c r="B9" s="127"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="56" t="s">
         <v>329</v>
       </c>
@@ -6850,7 +7061,7 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
-      <c r="B10" s="127"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="56" t="s">
         <v>330</v>
       </c>
@@ -6869,7 +7080,7 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
-      <c r="B11" s="127"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="56" t="s">
         <v>331</v>
       </c>
@@ -6888,7 +7099,7 @@
     </row>
     <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
-      <c r="B12" s="127"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="56" t="s">
         <v>332</v>
       </c>
@@ -6903,13 +7114,13 @@
         <v>349</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="188" t="s">
+      <c r="I12" s="128" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
-      <c r="B13" s="128"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="56" t="s">
         <v>333</v>
       </c>
@@ -7146,15 +7357,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="132"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -7708,8 +7919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AT42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="Z3" workbookViewId="0">
+      <selection activeCell="AO21" sqref="AO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7748,10 +7959,10 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="38" t="s">
         <v>27</v>
       </c>
@@ -7768,45 +7979,55 @@
       <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="147" t="s">
+      <c r="L4" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="147"/>
+      <c r="M4" s="150"/>
       <c r="N4" s="38" t="s">
         <v>27</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="147" t="s">
+      <c r="R4" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="147"/>
+      <c r="S4" s="150"/>
       <c r="T4" s="38" t="s">
         <v>27</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="147" t="s">
+      <c r="X4" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="147"/>
+      <c r="Y4" s="150"/>
       <c r="Z4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AG4" s="149" t="s">
+      <c r="AG4" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="AH4" s="147"/>
-      <c r="AI4" s="147" t="s">
+      <c r="AH4" s="150"/>
+      <c r="AI4" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="AJ4" s="147"/>
-      <c r="AK4" s="147" t="s">
+      <c r="AJ4" s="150"/>
+      <c r="AK4" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="AL4" s="148"/>
+      <c r="AL4" s="151"/>
+      <c r="AO4" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP4" s="150" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ4" s="150"/>
+      <c r="AR4" s="38" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -7840,13 +8061,19 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="3"/>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="156" t="s">
+      <c r="AH5" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="AI5" s="156"/>
-      <c r="AJ5" s="156"/>
+      <c r="AI5" s="159"/>
+      <c r="AJ5" s="159"/>
       <c r="AK5" s="103"/>
       <c r="AL5" s="3"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="3"/>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -7875,6 +8102,10 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="3"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="3"/>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -7907,6 +8138,10 @@
       <c r="AJ7" s="110"/>
       <c r="AK7" s="111"/>
       <c r="AL7" s="3"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="3"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -7939,10 +8174,10 @@
       <c r="AJ8" s="110"/>
       <c r="AK8" s="111"/>
       <c r="AL8" s="3"/>
-      <c r="AO8" s="125"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="3"/>
     </row>
     <row r="9" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -7971,10 +8206,10 @@
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="3"/>
-      <c r="AO9" s="125"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="6"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="3"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -7997,18 +8232,22 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="3"/>
-      <c r="AB10" s="150" t="s">
+      <c r="AB10" s="153" t="s">
         <v>298</v>
       </c>
-      <c r="AC10" s="151"/>
-      <c r="AD10" s="151"/>
-      <c r="AE10" s="152"/>
+      <c r="AC10" s="154"/>
+      <c r="AD10" s="154"/>
+      <c r="AE10" s="155"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="3"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="3"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -8051,6 +8290,12 @@
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="3"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="3"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -8087,6 +8332,10 @@
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="3"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="3"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -8119,6 +8368,10 @@
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="3"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="3"/>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -8155,6 +8408,10 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="3"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="3"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -8187,8 +8444,12 @@
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="3"/>
-    </row>
-    <row r="16" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="3"/>
+    </row>
+    <row r="16" spans="1:44" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8225,6 +8486,12 @@
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="3"/>
+      <c r="AO16" s="189" t="s">
+        <v>351</v>
+      </c>
+      <c r="AP16" s="190"/>
+      <c r="AQ16" s="190"/>
+      <c r="AR16" s="191"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -8265,6 +8532,10 @@
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="3"/>
+      <c r="AO17" s="189"/>
+      <c r="AP17" s="190"/>
+      <c r="AQ17" s="190"/>
+      <c r="AR17" s="191"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -8305,6 +8576,14 @@
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="3"/>
+      <c r="AO18" s="197" t="s">
+        <v>352</v>
+      </c>
+      <c r="AP18" s="192" t="s">
+        <v>355</v>
+      </c>
+      <c r="AQ18" s="110"/>
+      <c r="AR18" s="112"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -8339,6 +8618,12 @@
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="3"/>
+      <c r="AO19" s="197" t="s">
+        <v>353</v>
+      </c>
+      <c r="AP19" s="106"/>
+      <c r="AQ19" s="106"/>
+      <c r="AR19" s="107"/>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -8349,34 +8634,40 @@
         <v>303</v>
       </c>
       <c r="G20" s="119"/>
-      <c r="H20" s="153" t="s">
+      <c r="H20" s="156" t="s">
         <v>302</v>
       </c>
-      <c r="I20" s="154"/>
+      <c r="I20" s="157"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="162" t="s">
+      <c r="L20" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="162"/>
+      <c r="M20" s="165"/>
       <c r="N20" s="3"/>
-      <c r="Q20" s="157" t="s">
+      <c r="Q20" s="160" t="s">
         <v>294</v>
       </c>
-      <c r="R20" s="158"/>
-      <c r="S20" s="158"/>
-      <c r="T20" s="154"/>
-      <c r="W20" s="157" t="s">
+      <c r="R20" s="161"/>
+      <c r="S20" s="161"/>
+      <c r="T20" s="157"/>
+      <c r="W20" s="160" t="s">
         <v>295</v>
       </c>
-      <c r="X20" s="158"/>
-      <c r="Y20" s="158"/>
-      <c r="Z20" s="154"/>
+      <c r="X20" s="161"/>
+      <c r="Y20" s="161"/>
+      <c r="Z20" s="157"/>
       <c r="AG20" s="1"/>
-      <c r="AH20" s="155"/>
-      <c r="AI20" s="155"/>
-      <c r="AJ20" s="155"/>
+      <c r="AH20" s="158"/>
+      <c r="AI20" s="158"/>
+      <c r="AJ20" s="158"/>
       <c r="AK20" s="122"/>
       <c r="AL20" s="3"/>
+      <c r="AO20" s="198" t="s">
+        <v>354</v>
+      </c>
+      <c r="AP20" s="193"/>
+      <c r="AQ20" s="193"/>
+      <c r="AR20" s="194"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
@@ -8393,20 +8684,26 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
-      <c r="Q21" s="159"/>
-      <c r="R21" s="160"/>
-      <c r="S21" s="160"/>
-      <c r="T21" s="161"/>
-      <c r="W21" s="159"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="161"/>
+      <c r="Q21" s="162"/>
+      <c r="R21" s="163"/>
+      <c r="S21" s="163"/>
+      <c r="T21" s="164"/>
+      <c r="W21" s="162"/>
+      <c r="X21" s="163"/>
+      <c r="Y21" s="163"/>
+      <c r="Z21" s="164"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
       <c r="AK21" s="8"/>
       <c r="AL21" s="9"/>
+      <c r="AO21" s="199" t="s">
+        <v>356</v>
+      </c>
+      <c r="AP21" s="195"/>
+      <c r="AQ21" s="195"/>
+      <c r="AR21" s="196"/>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
@@ -8432,6 +8729,9 @@
       </c>
       <c r="AH23" s="104" t="s">
         <v>308</v>
+      </c>
+      <c r="AP23" s="104" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
@@ -9139,7 +9439,9 @@
       <c r="AT42" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AO16:AR17"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AG4:AH4"/>
@@ -9184,15 +9486,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="132"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -9783,43 +10085,43 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -10139,50 +10441,50 @@
       <c r="B32" s="67">
         <v>1</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="145"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="145"/>
-      <c r="R32" s="145"/>
-      <c r="S32" s="145"/>
-      <c r="T32" s="145"/>
-      <c r="U32" s="145"/>
-      <c r="V32" s="145"/>
-      <c r="W32" s="145"/>
-      <c r="X32" s="145"/>
-      <c r="Y32" s="145"/>
-      <c r="Z32" s="145"/>
-      <c r="AA32" s="145"/>
-      <c r="AB32" s="145"/>
-      <c r="AC32" s="145"/>
-      <c r="AD32" s="145"/>
-      <c r="AE32" s="145"/>
-      <c r="AF32" s="145"/>
-      <c r="AG32" s="145"/>
-      <c r="AH32" s="145"/>
-      <c r="AI32" s="145"/>
-      <c r="AJ32" s="145"/>
-      <c r="AK32" s="145"/>
-      <c r="AL32" s="145"/>
-      <c r="AM32" s="145"/>
-      <c r="AN32" s="145"/>
-      <c r="AO32" s="145"/>
-      <c r="AP32" s="145"/>
-      <c r="AQ32" s="145"/>
-      <c r="AR32" s="146"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+      <c r="N32" s="148"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="148"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="148"/>
+      <c r="S32" s="148"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="148"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="148"/>
+      <c r="X32" s="148"/>
+      <c r="Y32" s="148"/>
+      <c r="Z32" s="148"/>
+      <c r="AA32" s="148"/>
+      <c r="AB32" s="148"/>
+      <c r="AC32" s="148"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="148"/>
+      <c r="AF32" s="148"/>
+      <c r="AG32" s="148"/>
+      <c r="AH32" s="148"/>
+      <c r="AI32" s="148"/>
+      <c r="AJ32" s="148"/>
+      <c r="AK32" s="148"/>
+      <c r="AL32" s="148"/>
+      <c r="AM32" s="148"/>
+      <c r="AN32" s="148"/>
+      <c r="AO32" s="148"/>
+      <c r="AP32" s="148"/>
+      <c r="AQ32" s="148"/>
+      <c r="AR32" s="149"/>
     </row>
     <row r="33" spans="1:44" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
@@ -10758,15 +11060,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="132"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -11293,19 +11595,19 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="166" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163" t="s">
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="164"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="167"/>
     </row>
     <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
@@ -11323,27 +11625,27 @@
     </row>
     <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="168" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
       <c r="F5" s="87"/>
-      <c r="G5" s="166" t="s">
+      <c r="G5" s="169" t="s">
         <v>178</v>
       </c>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="87"/>
@@ -11355,18 +11657,18 @@
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="44"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="167" t="s">
+      <c r="G7" s="170" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
       <c r="M7" s="45"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -11505,18 +11807,18 @@
     </row>
     <row r="17" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="44"/>
-      <c r="C17" s="172" t="s">
+      <c r="C17" s="175" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="168"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="169"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="172"/>
       <c r="M17" s="47"/>
     </row>
     <row r="18" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11568,17 +11870,17 @@
       <c r="C21" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="168" t="s">
+      <c r="D21" s="171" t="s">
         <v>188</v>
       </c>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="168"/>
-      <c r="L21" s="169"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="172"/>
       <c r="M21" s="47"/>
     </row>
     <row r="22" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11586,17 +11888,17 @@
       <c r="C22" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="170" t="s">
+      <c r="D22" s="173" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="170"/>
-      <c r="L22" s="171"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="174"/>
       <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.25">
@@ -11708,51 +12010,51 @@
       <c r="B32" s="67">
         <v>1</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="145"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="145"/>
-      <c r="R32" s="145"/>
-      <c r="S32" s="145"/>
-      <c r="T32" s="145"/>
-      <c r="U32" s="145"/>
-      <c r="V32" s="145"/>
-      <c r="W32" s="145"/>
-      <c r="X32" s="145"/>
-      <c r="Y32" s="145"/>
-      <c r="Z32" s="145"/>
-      <c r="AA32" s="145"/>
-      <c r="AB32" s="145"/>
-      <c r="AC32" s="145"/>
-      <c r="AD32" s="145"/>
-      <c r="AE32" s="145"/>
-      <c r="AF32" s="145"/>
-      <c r="AG32" s="145"/>
-      <c r="AH32" s="145"/>
-      <c r="AI32" s="145"/>
-      <c r="AJ32" s="145"/>
-      <c r="AK32" s="145"/>
-      <c r="AL32" s="145"/>
-      <c r="AM32" s="145"/>
-      <c r="AN32" s="145"/>
-      <c r="AO32" s="145"/>
-      <c r="AP32" s="145"/>
-      <c r="AQ32" s="145"/>
-      <c r="AR32" s="145"/>
-      <c r="AS32" s="146"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+      <c r="N32" s="148"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="148"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="148"/>
+      <c r="S32" s="148"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="148"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="148"/>
+      <c r="X32" s="148"/>
+      <c r="Y32" s="148"/>
+      <c r="Z32" s="148"/>
+      <c r="AA32" s="148"/>
+      <c r="AB32" s="148"/>
+      <c r="AC32" s="148"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="148"/>
+      <c r="AF32" s="148"/>
+      <c r="AG32" s="148"/>
+      <c r="AH32" s="148"/>
+      <c r="AI32" s="148"/>
+      <c r="AJ32" s="148"/>
+      <c r="AK32" s="148"/>
+      <c r="AL32" s="148"/>
+      <c r="AM32" s="148"/>
+      <c r="AN32" s="148"/>
+      <c r="AO32" s="148"/>
+      <c r="AP32" s="148"/>
+      <c r="AQ32" s="148"/>
+      <c r="AR32" s="148"/>
+      <c r="AS32" s="149"/>
     </row>
     <row r="33" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
@@ -12347,15 +12649,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="132"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -13006,19 +13308,19 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="166" t="s">
         <v>230</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163" t="s">
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166" t="s">
         <v>249</v>
       </c>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="164"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="167"/>
     </row>
     <row r="4" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
@@ -13042,12 +13344,12 @@
       </c>
       <c r="E5" s="86"/>
       <c r="F5" s="87"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13072,12 +13374,12 @@
       </c>
       <c r="E7" s="86"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
       <c r="M7" s="45"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13142,186 +13444,186 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="44"/>
-      <c r="C12" s="173" t="s">
+      <c r="C12" s="176" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="174"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="177"/>
       <c r="M12" s="47"/>
     </row>
     <row r="13" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="44"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="177"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="180"/>
       <c r="M13" s="47"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="44"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="177"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="180"/>
       <c r="M14" s="47"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="44"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="177"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="180"/>
       <c r="M15" s="47"/>
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="44"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="177"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="180"/>
       <c r="M16" s="47"/>
     </row>
     <row r="17" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="44"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="177"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="180"/>
       <c r="M17" s="47"/>
     </row>
     <row r="18" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="44"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="176"/>
-      <c r="K18" s="176"/>
-      <c r="L18" s="177"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="180"/>
       <c r="M18" s="47"/>
     </row>
     <row r="19" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="44"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="176"/>
-      <c r="K19" s="176"/>
-      <c r="L19" s="177"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="180"/>
       <c r="M19" s="47"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B20" s="44"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="176"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="177"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="180"/>
       <c r="M20" s="47"/>
     </row>
     <row r="21" spans="1:45" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="44"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="177"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="180"/>
       <c r="M21" s="47"/>
     </row>
     <row r="22" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="44"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="176"/>
-      <c r="K22" s="176"/>
-      <c r="L22" s="177"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="180"/>
       <c r="M22" s="47"/>
     </row>
     <row r="23" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="177"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="180"/>
       <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B24" s="44"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="180"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="182"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="182"/>
+      <c r="L24" s="183"/>
       <c r="M24" s="45"/>
     </row>
     <row r="25" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13419,51 +13721,51 @@
       <c r="B33" s="67">
         <v>1</v>
       </c>
-      <c r="C33" s="144" t="s">
+      <c r="C33" s="147" t="s">
         <v>245</v>
       </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="145"/>
-      <c r="N33" s="145"/>
-      <c r="O33" s="145"/>
-      <c r="P33" s="145"/>
-      <c r="Q33" s="145"/>
-      <c r="R33" s="145"/>
-      <c r="S33" s="145"/>
-      <c r="T33" s="145"/>
-      <c r="U33" s="145"/>
-      <c r="V33" s="145"/>
-      <c r="W33" s="145"/>
-      <c r="X33" s="145"/>
-      <c r="Y33" s="145"/>
-      <c r="Z33" s="145"/>
-      <c r="AA33" s="145"/>
-      <c r="AB33" s="145"/>
-      <c r="AC33" s="145"/>
-      <c r="AD33" s="145"/>
-      <c r="AE33" s="145"/>
-      <c r="AF33" s="145"/>
-      <c r="AG33" s="145"/>
-      <c r="AH33" s="145"/>
-      <c r="AI33" s="145"/>
-      <c r="AJ33" s="145"/>
-      <c r="AK33" s="145"/>
-      <c r="AL33" s="145"/>
-      <c r="AM33" s="145"/>
-      <c r="AN33" s="145"/>
-      <c r="AO33" s="145"/>
-      <c r="AP33" s="145"/>
-      <c r="AQ33" s="145"/>
-      <c r="AR33" s="145"/>
-      <c r="AS33" s="146"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="148"/>
+      <c r="S33" s="148"/>
+      <c r="T33" s="148"/>
+      <c r="U33" s="148"/>
+      <c r="V33" s="148"/>
+      <c r="W33" s="148"/>
+      <c r="X33" s="148"/>
+      <c r="Y33" s="148"/>
+      <c r="Z33" s="148"/>
+      <c r="AA33" s="148"/>
+      <c r="AB33" s="148"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="148"/>
+      <c r="AE33" s="148"/>
+      <c r="AF33" s="148"/>
+      <c r="AG33" s="148"/>
+      <c r="AH33" s="148"/>
+      <c r="AI33" s="148"/>
+      <c r="AJ33" s="148"/>
+      <c r="AK33" s="148"/>
+      <c r="AL33" s="148"/>
+      <c r="AM33" s="148"/>
+      <c r="AN33" s="148"/>
+      <c r="AO33" s="148"/>
+      <c r="AP33" s="148"/>
+      <c r="AQ33" s="148"/>
+      <c r="AR33" s="148"/>
+      <c r="AS33" s="149"/>
     </row>
     <row r="34" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
@@ -14055,15 +14357,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="132"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -14676,19 +14978,19 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="166" t="s">
         <v>264</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="182" t="s">
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="185" t="s">
         <v>267</v>
       </c>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="183"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="186"/>
     </row>
     <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
@@ -14709,17 +15011,17 @@
       <c r="C5" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="184" t="s">
         <v>265</v>
       </c>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14741,17 +15043,17 @@
       <c r="C7" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="170" t="s">
         <v>266</v>
       </c>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
       <c r="M7" s="45"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -14868,16 +15170,16 @@
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="44"/>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="184"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="184"/>
-      <c r="K16" s="184"/>
-      <c r="L16" s="184"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="187"/>
+      <c r="L16" s="187"/>
       <c r="M16" s="47"/>
     </row>
     <row r="17" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14896,16 +15198,16 @@
     </row>
     <row r="18" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="44"/>
-      <c r="C18" s="185"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="185"/>
-      <c r="L18" s="185"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="188"/>
+      <c r="L18" s="188"/>
       <c r="M18" s="47"/>
     </row>
     <row r="19" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14953,29 +15255,29 @@
     <row r="22" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="44"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="185"/>
-      <c r="K22" s="185"/>
-      <c r="L22" s="185"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="188"/>
+      <c r="L22" s="188"/>
       <c r="M22" s="47"/>
     </row>
     <row r="23" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
       <c r="C23" s="39"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="167"/>
-      <c r="K23" s="167"/>
-      <c r="L23" s="167"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
       <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
@@ -15087,51 +15389,51 @@
       <c r="B33" s="67">
         <v>1</v>
       </c>
-      <c r="C33" s="144" t="s">
+      <c r="C33" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="145"/>
-      <c r="N33" s="145"/>
-      <c r="O33" s="145"/>
-      <c r="P33" s="145"/>
-      <c r="Q33" s="145"/>
-      <c r="R33" s="145"/>
-      <c r="S33" s="145"/>
-      <c r="T33" s="145"/>
-      <c r="U33" s="145"/>
-      <c r="V33" s="145"/>
-      <c r="W33" s="145"/>
-      <c r="X33" s="145"/>
-      <c r="Y33" s="145"/>
-      <c r="Z33" s="145"/>
-      <c r="AA33" s="145"/>
-      <c r="AB33" s="145"/>
-      <c r="AC33" s="145"/>
-      <c r="AD33" s="145"/>
-      <c r="AE33" s="145"/>
-      <c r="AF33" s="145"/>
-      <c r="AG33" s="145"/>
-      <c r="AH33" s="145"/>
-      <c r="AI33" s="145"/>
-      <c r="AJ33" s="145"/>
-      <c r="AK33" s="145"/>
-      <c r="AL33" s="145"/>
-      <c r="AM33" s="145"/>
-      <c r="AN33" s="145"/>
-      <c r="AO33" s="145"/>
-      <c r="AP33" s="145"/>
-      <c r="AQ33" s="145"/>
-      <c r="AR33" s="145"/>
-      <c r="AS33" s="146"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="148"/>
+      <c r="S33" s="148"/>
+      <c r="T33" s="148"/>
+      <c r="U33" s="148"/>
+      <c r="V33" s="148"/>
+      <c r="W33" s="148"/>
+      <c r="X33" s="148"/>
+      <c r="Y33" s="148"/>
+      <c r="Z33" s="148"/>
+      <c r="AA33" s="148"/>
+      <c r="AB33" s="148"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="148"/>
+      <c r="AE33" s="148"/>
+      <c r="AF33" s="148"/>
+      <c r="AG33" s="148"/>
+      <c r="AH33" s="148"/>
+      <c r="AI33" s="148"/>
+      <c r="AJ33" s="148"/>
+      <c r="AK33" s="148"/>
+      <c r="AL33" s="148"/>
+      <c r="AM33" s="148"/>
+      <c r="AN33" s="148"/>
+      <c r="AO33" s="148"/>
+      <c r="AP33" s="148"/>
+      <c r="AQ33" s="148"/>
+      <c r="AR33" s="148"/>
+      <c r="AS33" s="149"/>
     </row>
     <row r="34" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
@@ -16019,15 +16321,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="132"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -16672,196 +16974,196 @@
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
       <c r="K5" s="45"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="44"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
       <c r="K7" s="45"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="44"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
       <c r="K8" s="45"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="44"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
       <c r="K9" s="45"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="44"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
       <c r="K10" s="45"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="44"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
       <c r="K11" s="46"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="44"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="44"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
       <c r="K13" s="46"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="44"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
       <c r="K14" s="47"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="44"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
       <c r="K15" s="47"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="44"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
       <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B17" s="44"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
       <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B18" s="44"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
       <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B19" s="44"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
       <c r="K19" s="45"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -17590,15 +17892,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="132"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -18167,40 +18469,40 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
       <c r="K5" s="45"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -18246,11 +18548,11 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="137"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
       <c r="K10" s="46"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18275,11 +18577,11 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="140"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="143"/>
       <c r="K12" s="46"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -19091,15 +19393,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="132"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -19697,43 +19999,43 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19757,11 +20059,11 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="137"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="140"/>
       <c r="L8" s="46"/>
     </row>
     <row r="9" spans="2:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -19785,11 +20087,11 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="140"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="143"/>
       <c r="L10" s="46"/>
     </row>
     <row r="11" spans="2:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20681,15 +20983,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="132"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -21313,43 +21615,43 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -21671,50 +21973,50 @@
       <c r="B32" s="67">
         <v>1</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="145"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="145"/>
-      <c r="R32" s="145"/>
-      <c r="S32" s="145"/>
-      <c r="T32" s="145"/>
-      <c r="U32" s="145"/>
-      <c r="V32" s="145"/>
-      <c r="W32" s="145"/>
-      <c r="X32" s="145"/>
-      <c r="Y32" s="145"/>
-      <c r="Z32" s="145"/>
-      <c r="AA32" s="145"/>
-      <c r="AB32" s="145"/>
-      <c r="AC32" s="145"/>
-      <c r="AD32" s="145"/>
-      <c r="AE32" s="145"/>
-      <c r="AF32" s="145"/>
-      <c r="AG32" s="145"/>
-      <c r="AH32" s="145"/>
-      <c r="AI32" s="145"/>
-      <c r="AJ32" s="145"/>
-      <c r="AK32" s="145"/>
-      <c r="AL32" s="145"/>
-      <c r="AM32" s="145"/>
-      <c r="AN32" s="145"/>
-      <c r="AO32" s="145"/>
-      <c r="AP32" s="145"/>
-      <c r="AQ32" s="145"/>
-      <c r="AR32" s="146"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+      <c r="N32" s="148"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="148"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="148"/>
+      <c r="S32" s="148"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="148"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="148"/>
+      <c r="X32" s="148"/>
+      <c r="Y32" s="148"/>
+      <c r="Z32" s="148"/>
+      <c r="AA32" s="148"/>
+      <c r="AB32" s="148"/>
+      <c r="AC32" s="148"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="148"/>
+      <c r="AF32" s="148"/>
+      <c r="AG32" s="148"/>
+      <c r="AH32" s="148"/>
+      <c r="AI32" s="148"/>
+      <c r="AJ32" s="148"/>
+      <c r="AK32" s="148"/>
+      <c r="AL32" s="148"/>
+      <c r="AM32" s="148"/>
+      <c r="AN32" s="148"/>
+      <c r="AO32" s="148"/>
+      <c r="AP32" s="148"/>
+      <c r="AQ32" s="148"/>
+      <c r="AR32" s="149"/>
     </row>
     <row r="33" spans="1:44" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>

--- a/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_Rider.xlsx
+++ b/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_Rider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="875" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="875"/>
   </bookViews>
   <sheets>
     <sheet name="Function List" sheetId="8" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="364">
   <si>
     <t>và vị trí bạn đang đứng, có thể di chuyển vị trí đang đứng để xác định vị trí Taxi đón</t>
   </si>
@@ -1790,12 +1790,36 @@
   <si>
     <t>Số hóa đơn:AD110, bạn có thể kiểm tra chi tiêt trên website</t>
   </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Android: done
+IOS:  Nhat ban giao codes cho DAO</t>
+  </si>
+  <si>
+    <t>Android: done
+iOS: open</t>
+  </si>
+  <si>
+    <t>iOS: in progress (chua tich hop voi backend)</t>
+  </si>
+  <si>
+    <t>Android: done
+IOS: chua tich hop voi backend</t>
+  </si>
+  <si>
+    <t>iOS: xong giao dien, chua tich hop voi backend</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1940,6 +1964,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2914,11 +2944,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2978,6 +3015,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3093,23 +3139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -6883,8 +6913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6937,11 +6967,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="56">
         <v>1</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="136" t="s">
         <v>321</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -6957,14 +6987,18 @@
       <c r="G4" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="19"/>
+      <c r="H4" s="199" t="s">
+        <v>357</v>
+      </c>
+      <c r="I4" s="127" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="56">
         <v>2</v>
       </c>
-      <c r="B5" s="130"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="56" t="s">
         <v>325</v>
       </c>
@@ -6978,14 +7012,18 @@
       <c r="G5" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="H5" s="127"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H5" s="126" t="s">
+        <v>357</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="56">
         <v>3</v>
       </c>
-      <c r="B6" s="130"/>
+      <c r="B6" s="137"/>
       <c r="C6" s="56" t="s">
         <v>326</v>
       </c>
@@ -6999,12 +7037,16 @@
       <c r="G6" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H6" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="I6" s="127" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
-      <c r="B7" s="130"/>
+      <c r="B7" s="137"/>
       <c r="C7" s="56" t="s">
         <v>327</v>
       </c>
@@ -7018,12 +7060,16 @@
       <c r="G7" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="I7" s="127" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
-      <c r="B8" s="130"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="56" t="s">
         <v>328</v>
       </c>
@@ -7037,12 +7083,16 @@
       <c r="G8" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="H8" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
-      <c r="B9" s="130"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="56" t="s">
         <v>329</v>
       </c>
@@ -7056,12 +7106,16 @@
       <c r="G9" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="H9" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
-      <c r="B10" s="130"/>
+      <c r="B10" s="137"/>
       <c r="C10" s="56" t="s">
         <v>330</v>
       </c>
@@ -7075,12 +7129,14 @@
       <c r="G10" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="19" t="s">
+        <v>358</v>
+      </c>
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
-      <c r="B11" s="130"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="56" t="s">
         <v>331</v>
       </c>
@@ -7094,12 +7150,14 @@
       <c r="G11" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="19" t="s">
+        <v>358</v>
+      </c>
       <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
-      <c r="B12" s="130"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="56" t="s">
         <v>332</v>
       </c>
@@ -7113,14 +7171,16 @@
       <c r="G12" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="128" t="s">
+      <c r="H12" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="I12" s="127" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
-      <c r="B13" s="131"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="56" t="s">
         <v>333</v>
       </c>
@@ -7331,6 +7391,7 @@
     <mergeCell ref="B4:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7357,15 +7418,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="135"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -7919,7 +7980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z3" workbookViewId="0">
+    <sheetView topLeftCell="Z3" workbookViewId="0">
       <selection activeCell="AO21" sqref="AO21"/>
     </sheetView>
   </sheetViews>
@@ -7959,10 +8020,10 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="150"/>
+      <c r="C4" s="157"/>
       <c r="D4" s="38" t="s">
         <v>27</v>
       </c>
@@ -7979,52 +8040,52 @@
       <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="150" t="s">
+      <c r="L4" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="150"/>
+      <c r="M4" s="157"/>
       <c r="N4" s="38" t="s">
         <v>27</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="150" t="s">
+      <c r="R4" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="150"/>
+      <c r="S4" s="157"/>
       <c r="T4" s="38" t="s">
         <v>27</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="150" t="s">
+      <c r="X4" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="150"/>
+      <c r="Y4" s="157"/>
       <c r="Z4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AG4" s="152" t="s">
+      <c r="AG4" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="AH4" s="150"/>
-      <c r="AI4" s="150" t="s">
+      <c r="AH4" s="157"/>
+      <c r="AI4" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="AJ4" s="150"/>
-      <c r="AK4" s="150" t="s">
+      <c r="AJ4" s="157"/>
+      <c r="AK4" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="AL4" s="151"/>
+      <c r="AL4" s="161"/>
       <c r="AO4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="AP4" s="150" t="s">
+      <c r="AP4" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="AQ4" s="150"/>
+      <c r="AQ4" s="157"/>
       <c r="AR4" s="38" t="s">
         <v>27</v>
       </c>
@@ -8061,11 +8122,11 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="3"/>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="159" t="s">
+      <c r="AH5" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="AI5" s="159"/>
-      <c r="AJ5" s="159"/>
+      <c r="AI5" s="169"/>
+      <c r="AJ5" s="169"/>
       <c r="AK5" s="103"/>
       <c r="AL5" s="3"/>
       <c r="AO5" s="1"/>
@@ -8232,12 +8293,12 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="3"/>
-      <c r="AB10" s="153" t="s">
+      <c r="AB10" s="163" t="s">
         <v>298</v>
       </c>
-      <c r="AC10" s="154"/>
-      <c r="AD10" s="154"/>
-      <c r="AE10" s="155"/>
+      <c r="AC10" s="164"/>
+      <c r="AD10" s="164"/>
+      <c r="AE10" s="165"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
@@ -8486,12 +8547,12 @@
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="3"/>
-      <c r="AO16" s="189" t="s">
+      <c r="AO16" s="158" t="s">
         <v>351</v>
       </c>
-      <c r="AP16" s="190"/>
-      <c r="AQ16" s="190"/>
-      <c r="AR16" s="191"/>
+      <c r="AP16" s="159"/>
+      <c r="AQ16" s="159"/>
+      <c r="AR16" s="160"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -8532,10 +8593,10 @@
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="3"/>
-      <c r="AO17" s="189"/>
-      <c r="AP17" s="190"/>
-      <c r="AQ17" s="190"/>
-      <c r="AR17" s="191"/>
+      <c r="AO17" s="158"/>
+      <c r="AP17" s="159"/>
+      <c r="AQ17" s="159"/>
+      <c r="AR17" s="160"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -8576,10 +8637,10 @@
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="3"/>
-      <c r="AO18" s="197" t="s">
+      <c r="AO18" s="133" t="s">
         <v>352</v>
       </c>
-      <c r="AP18" s="192" t="s">
+      <c r="AP18" s="128" t="s">
         <v>355</v>
       </c>
       <c r="AQ18" s="110"/>
@@ -8618,7 +8679,7 @@
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="3"/>
-      <c r="AO19" s="197" t="s">
+      <c r="AO19" s="133" t="s">
         <v>353</v>
       </c>
       <c r="AP19" s="106"/>
@@ -8634,40 +8695,40 @@
         <v>303</v>
       </c>
       <c r="G20" s="119"/>
-      <c r="H20" s="156" t="s">
+      <c r="H20" s="166" t="s">
         <v>302</v>
       </c>
-      <c r="I20" s="157"/>
+      <c r="I20" s="167"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="165" t="s">
+      <c r="L20" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="165"/>
+      <c r="M20" s="175"/>
       <c r="N20" s="3"/>
-      <c r="Q20" s="160" t="s">
+      <c r="Q20" s="170" t="s">
         <v>294</v>
       </c>
-      <c r="R20" s="161"/>
-      <c r="S20" s="161"/>
-      <c r="T20" s="157"/>
-      <c r="W20" s="160" t="s">
+      <c r="R20" s="171"/>
+      <c r="S20" s="171"/>
+      <c r="T20" s="167"/>
+      <c r="W20" s="170" t="s">
         <v>295</v>
       </c>
-      <c r="X20" s="161"/>
-      <c r="Y20" s="161"/>
-      <c r="Z20" s="157"/>
+      <c r="X20" s="171"/>
+      <c r="Y20" s="171"/>
+      <c r="Z20" s="167"/>
       <c r="AG20" s="1"/>
-      <c r="AH20" s="158"/>
-      <c r="AI20" s="158"/>
-      <c r="AJ20" s="158"/>
+      <c r="AH20" s="168"/>
+      <c r="AI20" s="168"/>
+      <c r="AJ20" s="168"/>
       <c r="AK20" s="122"/>
       <c r="AL20" s="3"/>
-      <c r="AO20" s="198" t="s">
+      <c r="AO20" s="134" t="s">
         <v>354</v>
       </c>
-      <c r="AP20" s="193"/>
-      <c r="AQ20" s="193"/>
-      <c r="AR20" s="194"/>
+      <c r="AP20" s="129"/>
+      <c r="AQ20" s="129"/>
+      <c r="AR20" s="130"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
@@ -8684,26 +8745,26 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="9"/>
-      <c r="Q21" s="162"/>
-      <c r="R21" s="163"/>
-      <c r="S21" s="163"/>
-      <c r="T21" s="164"/>
-      <c r="W21" s="162"/>
-      <c r="X21" s="163"/>
-      <c r="Y21" s="163"/>
-      <c r="Z21" s="164"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="173"/>
+      <c r="S21" s="173"/>
+      <c r="T21" s="174"/>
+      <c r="W21" s="172"/>
+      <c r="X21" s="173"/>
+      <c r="Y21" s="173"/>
+      <c r="Z21" s="174"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
       <c r="AK21" s="8"/>
       <c r="AL21" s="9"/>
-      <c r="AO21" s="199" t="s">
+      <c r="AO21" s="135" t="s">
         <v>356</v>
       </c>
-      <c r="AP21" s="195"/>
-      <c r="AQ21" s="195"/>
-      <c r="AR21" s="196"/>
+      <c r="AP21" s="131"/>
+      <c r="AQ21" s="131"/>
+      <c r="AR21" s="132"/>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
@@ -9440,12 +9501,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AO16:AR17"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AB10:AE10"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="AH20:AJ20"/>
     <mergeCell ref="AH5:AJ5"/>
@@ -9456,6 +9511,12 @@
     <mergeCell ref="W20:Z21"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L20:M20"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AO16:AR17"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AB10:AE10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9486,15 +9547,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="135"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -10085,43 +10146,43 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -10441,50 +10502,50 @@
       <c r="B32" s="67">
         <v>1</v>
       </c>
-      <c r="C32" s="147" t="s">
+      <c r="C32" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="148"/>
-      <c r="O32" s="148"/>
-      <c r="P32" s="148"/>
-      <c r="Q32" s="148"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="148"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="148"/>
-      <c r="Y32" s="148"/>
-      <c r="Z32" s="148"/>
-      <c r="AA32" s="148"/>
-      <c r="AB32" s="148"/>
-      <c r="AC32" s="148"/>
-      <c r="AD32" s="148"/>
-      <c r="AE32" s="148"/>
-      <c r="AF32" s="148"/>
-      <c r="AG32" s="148"/>
-      <c r="AH32" s="148"/>
-      <c r="AI32" s="148"/>
-      <c r="AJ32" s="148"/>
-      <c r="AK32" s="148"/>
-      <c r="AL32" s="148"/>
-      <c r="AM32" s="148"/>
-      <c r="AN32" s="148"/>
-      <c r="AO32" s="148"/>
-      <c r="AP32" s="148"/>
-      <c r="AQ32" s="148"/>
-      <c r="AR32" s="149"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="155"/>
+      <c r="P32" s="155"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="155"/>
+      <c r="S32" s="155"/>
+      <c r="T32" s="155"/>
+      <c r="U32" s="155"/>
+      <c r="V32" s="155"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="155"/>
+      <c r="Y32" s="155"/>
+      <c r="Z32" s="155"/>
+      <c r="AA32" s="155"/>
+      <c r="AB32" s="155"/>
+      <c r="AC32" s="155"/>
+      <c r="AD32" s="155"/>
+      <c r="AE32" s="155"/>
+      <c r="AF32" s="155"/>
+      <c r="AG32" s="155"/>
+      <c r="AH32" s="155"/>
+      <c r="AI32" s="155"/>
+      <c r="AJ32" s="155"/>
+      <c r="AK32" s="155"/>
+      <c r="AL32" s="155"/>
+      <c r="AM32" s="155"/>
+      <c r="AN32" s="155"/>
+      <c r="AO32" s="155"/>
+      <c r="AP32" s="155"/>
+      <c r="AQ32" s="155"/>
+      <c r="AR32" s="156"/>
     </row>
     <row r="33" spans="1:44" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
@@ -11060,15 +11121,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="135"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -11595,19 +11656,19 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
-      <c r="E3" s="166" t="s">
+      <c r="E3" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166" t="s">
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176" t="s">
         <v>176</v>
       </c>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="167"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="177"/>
     </row>
     <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
@@ -11625,27 +11686,27 @@
     </row>
     <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="178" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
       <c r="F5" s="87"/>
-      <c r="G5" s="169" t="s">
+      <c r="G5" s="179" t="s">
         <v>178</v>
       </c>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="169"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="87"/>
@@ -11657,18 +11718,18 @@
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="44"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="170" t="s">
+      <c r="G7" s="180" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
       <c r="M7" s="45"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -11807,18 +11868,18 @@
     </row>
     <row r="17" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="44"/>
-      <c r="C17" s="175" t="s">
+      <c r="C17" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="172"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="181"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="182"/>
       <c r="M17" s="47"/>
     </row>
     <row r="18" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11870,17 +11931,17 @@
       <c r="C21" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="171" t="s">
+      <c r="D21" s="181" t="s">
         <v>188</v>
       </c>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="172"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="182"/>
       <c r="M21" s="47"/>
     </row>
     <row r="22" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11888,17 +11949,17 @@
       <c r="C22" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="173" t="s">
+      <c r="D22" s="183" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="173"/>
-      <c r="K22" s="173"/>
-      <c r="L22" s="174"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="184"/>
       <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.25">
@@ -12010,51 +12071,51 @@
       <c r="B32" s="67">
         <v>1</v>
       </c>
-      <c r="C32" s="147" t="s">
+      <c r="C32" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="148"/>
-      <c r="O32" s="148"/>
-      <c r="P32" s="148"/>
-      <c r="Q32" s="148"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="148"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="148"/>
-      <c r="Y32" s="148"/>
-      <c r="Z32" s="148"/>
-      <c r="AA32" s="148"/>
-      <c r="AB32" s="148"/>
-      <c r="AC32" s="148"/>
-      <c r="AD32" s="148"/>
-      <c r="AE32" s="148"/>
-      <c r="AF32" s="148"/>
-      <c r="AG32" s="148"/>
-      <c r="AH32" s="148"/>
-      <c r="AI32" s="148"/>
-      <c r="AJ32" s="148"/>
-      <c r="AK32" s="148"/>
-      <c r="AL32" s="148"/>
-      <c r="AM32" s="148"/>
-      <c r="AN32" s="148"/>
-      <c r="AO32" s="148"/>
-      <c r="AP32" s="148"/>
-      <c r="AQ32" s="148"/>
-      <c r="AR32" s="148"/>
-      <c r="AS32" s="149"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="155"/>
+      <c r="P32" s="155"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="155"/>
+      <c r="S32" s="155"/>
+      <c r="T32" s="155"/>
+      <c r="U32" s="155"/>
+      <c r="V32" s="155"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="155"/>
+      <c r="Y32" s="155"/>
+      <c r="Z32" s="155"/>
+      <c r="AA32" s="155"/>
+      <c r="AB32" s="155"/>
+      <c r="AC32" s="155"/>
+      <c r="AD32" s="155"/>
+      <c r="AE32" s="155"/>
+      <c r="AF32" s="155"/>
+      <c r="AG32" s="155"/>
+      <c r="AH32" s="155"/>
+      <c r="AI32" s="155"/>
+      <c r="AJ32" s="155"/>
+      <c r="AK32" s="155"/>
+      <c r="AL32" s="155"/>
+      <c r="AM32" s="155"/>
+      <c r="AN32" s="155"/>
+      <c r="AO32" s="155"/>
+      <c r="AP32" s="155"/>
+      <c r="AQ32" s="155"/>
+      <c r="AR32" s="155"/>
+      <c r="AS32" s="156"/>
     </row>
     <row r="33" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
@@ -12649,15 +12710,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="135"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -13308,19 +13369,19 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
-      <c r="E3" s="166" t="s">
+      <c r="E3" s="176" t="s">
         <v>230</v>
       </c>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166" t="s">
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176" t="s">
         <v>249</v>
       </c>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="167"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="177"/>
     </row>
     <row r="4" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
@@ -13344,12 +13405,12 @@
       </c>
       <c r="E5" s="86"/>
       <c r="F5" s="87"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="169"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13374,12 +13435,12 @@
       </c>
       <c r="E7" s="86"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
       <c r="M7" s="45"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13444,186 +13505,186 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="44"/>
-      <c r="C12" s="176" t="s">
+      <c r="C12" s="186" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="177"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="187"/>
       <c r="M12" s="47"/>
     </row>
     <row r="13" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="44"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="180"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="190"/>
       <c r="M13" s="47"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="44"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="180"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="190"/>
       <c r="M14" s="47"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="44"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="180"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="190"/>
       <c r="M15" s="47"/>
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="44"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="180"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="190"/>
       <c r="M16" s="47"/>
     </row>
     <row r="17" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="44"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="180"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="190"/>
       <c r="M17" s="47"/>
     </row>
     <row r="18" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="44"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="180"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="190"/>
       <c r="M18" s="47"/>
     </row>
     <row r="19" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="44"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="180"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="189"/>
+      <c r="L19" s="190"/>
       <c r="M19" s="47"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B20" s="44"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="180"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="189"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="189"/>
+      <c r="L20" s="190"/>
       <c r="M20" s="47"/>
     </row>
     <row r="21" spans="1:45" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="44"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="180"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="190"/>
       <c r="M21" s="47"/>
     </row>
     <row r="22" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="44"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="180"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="190"/>
       <c r="M22" s="47"/>
     </row>
     <row r="23" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="180"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="189"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="189"/>
+      <c r="L23" s="190"/>
       <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B24" s="44"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="182"/>
-      <c r="E24" s="182"/>
-      <c r="F24" s="182"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="183"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="192"/>
+      <c r="K24" s="192"/>
+      <c r="L24" s="193"/>
       <c r="M24" s="45"/>
     </row>
     <row r="25" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13721,51 +13782,51 @@
       <c r="B33" s="67">
         <v>1</v>
       </c>
-      <c r="C33" s="147" t="s">
+      <c r="C33" s="154" t="s">
         <v>245</v>
       </c>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="148"/>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148"/>
-      <c r="Y33" s="148"/>
-      <c r="Z33" s="148"/>
-      <c r="AA33" s="148"/>
-      <c r="AB33" s="148"/>
-      <c r="AC33" s="148"/>
-      <c r="AD33" s="148"/>
-      <c r="AE33" s="148"/>
-      <c r="AF33" s="148"/>
-      <c r="AG33" s="148"/>
-      <c r="AH33" s="148"/>
-      <c r="AI33" s="148"/>
-      <c r="AJ33" s="148"/>
-      <c r="AK33" s="148"/>
-      <c r="AL33" s="148"/>
-      <c r="AM33" s="148"/>
-      <c r="AN33" s="148"/>
-      <c r="AO33" s="148"/>
-      <c r="AP33" s="148"/>
-      <c r="AQ33" s="148"/>
-      <c r="AR33" s="148"/>
-      <c r="AS33" s="149"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="155"/>
+      <c r="O33" s="155"/>
+      <c r="P33" s="155"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="155"/>
+      <c r="S33" s="155"/>
+      <c r="T33" s="155"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="155"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="155"/>
+      <c r="Y33" s="155"/>
+      <c r="Z33" s="155"/>
+      <c r="AA33" s="155"/>
+      <c r="AB33" s="155"/>
+      <c r="AC33" s="155"/>
+      <c r="AD33" s="155"/>
+      <c r="AE33" s="155"/>
+      <c r="AF33" s="155"/>
+      <c r="AG33" s="155"/>
+      <c r="AH33" s="155"/>
+      <c r="AI33" s="155"/>
+      <c r="AJ33" s="155"/>
+      <c r="AK33" s="155"/>
+      <c r="AL33" s="155"/>
+      <c r="AM33" s="155"/>
+      <c r="AN33" s="155"/>
+      <c r="AO33" s="155"/>
+      <c r="AP33" s="155"/>
+      <c r="AQ33" s="155"/>
+      <c r="AR33" s="155"/>
+      <c r="AS33" s="156"/>
     </row>
     <row r="34" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
@@ -14357,15 +14418,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="135"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -14978,19 +15039,19 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
-      <c r="E3" s="166" t="s">
+      <c r="E3" s="176" t="s">
         <v>264</v>
       </c>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="185" t="s">
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="195" t="s">
         <v>267</v>
       </c>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="186"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="196"/>
     </row>
     <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
@@ -15011,17 +15072,17 @@
       <c r="C5" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="184" t="s">
+      <c r="D5" s="194" t="s">
         <v>265</v>
       </c>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
       <c r="M5" s="45"/>
     </row>
     <row r="6" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15043,17 +15104,17 @@
       <c r="C7" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="170" t="s">
+      <c r="D7" s="180" t="s">
         <v>266</v>
       </c>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
       <c r="M7" s="45"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15170,16 +15231,16 @@
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="44"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="187"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
       <c r="M16" s="47"/>
     </row>
     <row r="17" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15198,16 +15259,16 @@
     </row>
     <row r="18" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="44"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="188"/>
-      <c r="K18" s="188"/>
-      <c r="L18" s="188"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
       <c r="M18" s="47"/>
     </row>
     <row r="19" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15255,29 +15316,29 @@
     <row r="22" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="44"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="188"/>
-      <c r="K22" s="188"/>
-      <c r="L22" s="188"/>
+      <c r="D22" s="198"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="198"/>
+      <c r="L22" s="198"/>
       <c r="M22" s="47"/>
     </row>
     <row r="23" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
       <c r="C23" s="39"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="180"/>
       <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
@@ -15389,51 +15450,51 @@
       <c r="B33" s="67">
         <v>1</v>
       </c>
-      <c r="C33" s="147" t="s">
+      <c r="C33" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="148"/>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148"/>
-      <c r="Y33" s="148"/>
-      <c r="Z33" s="148"/>
-      <c r="AA33" s="148"/>
-      <c r="AB33" s="148"/>
-      <c r="AC33" s="148"/>
-      <c r="AD33" s="148"/>
-      <c r="AE33" s="148"/>
-      <c r="AF33" s="148"/>
-      <c r="AG33" s="148"/>
-      <c r="AH33" s="148"/>
-      <c r="AI33" s="148"/>
-      <c r="AJ33" s="148"/>
-      <c r="AK33" s="148"/>
-      <c r="AL33" s="148"/>
-      <c r="AM33" s="148"/>
-      <c r="AN33" s="148"/>
-      <c r="AO33" s="148"/>
-      <c r="AP33" s="148"/>
-      <c r="AQ33" s="148"/>
-      <c r="AR33" s="148"/>
-      <c r="AS33" s="149"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="155"/>
+      <c r="O33" s="155"/>
+      <c r="P33" s="155"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="155"/>
+      <c r="S33" s="155"/>
+      <c r="T33" s="155"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="155"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="155"/>
+      <c r="Y33" s="155"/>
+      <c r="Z33" s="155"/>
+      <c r="AA33" s="155"/>
+      <c r="AB33" s="155"/>
+      <c r="AC33" s="155"/>
+      <c r="AD33" s="155"/>
+      <c r="AE33" s="155"/>
+      <c r="AF33" s="155"/>
+      <c r="AG33" s="155"/>
+      <c r="AH33" s="155"/>
+      <c r="AI33" s="155"/>
+      <c r="AJ33" s="155"/>
+      <c r="AK33" s="155"/>
+      <c r="AL33" s="155"/>
+      <c r="AM33" s="155"/>
+      <c r="AN33" s="155"/>
+      <c r="AO33" s="155"/>
+      <c r="AP33" s="155"/>
+      <c r="AQ33" s="155"/>
+      <c r="AR33" s="155"/>
+      <c r="AS33" s="156"/>
     </row>
     <row r="34" spans="1:45" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
@@ -16321,15 +16382,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="135"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -16974,196 +17035,196 @@
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="139" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
       <c r="K5" s="45"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="44"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
       <c r="K7" s="45"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="44"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
       <c r="K8" s="45"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="44"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
       <c r="K9" s="45"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="44"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
       <c r="K10" s="45"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="44"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
       <c r="K11" s="46"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="44"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="44"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
       <c r="K13" s="46"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="44"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
       <c r="K14" s="47"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="44"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
       <c r="K15" s="47"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="44"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
       <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B17" s="44"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
       <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B18" s="44"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
       <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B19" s="44"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="132"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
       <c r="K19" s="45"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -17892,15 +17953,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="135"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -18469,40 +18530,40 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
       <c r="K5" s="45"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -18548,11 +18609,11 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="140"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="147"/>
       <c r="K10" s="46"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18577,11 +18638,11 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="143"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="150"/>
       <c r="K12" s="46"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -19393,15 +19454,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="135"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -19999,43 +20060,43 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20059,11 +20120,11 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="140"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="147"/>
       <c r="L8" s="46"/>
     </row>
     <row r="9" spans="2:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20087,11 +20148,11 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="143"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="150"/>
       <c r="L10" s="46"/>
     </row>
     <row r="11" spans="2:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20983,15 +21044,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="135"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -21615,43 +21676,43 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="44"/>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="44"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="2:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="44"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -21973,50 +22034,50 @@
       <c r="B32" s="67">
         <v>1</v>
       </c>
-      <c r="C32" s="147" t="s">
+      <c r="C32" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="148"/>
-      <c r="O32" s="148"/>
-      <c r="P32" s="148"/>
-      <c r="Q32" s="148"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="148"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="148"/>
-      <c r="Y32" s="148"/>
-      <c r="Z32" s="148"/>
-      <c r="AA32" s="148"/>
-      <c r="AB32" s="148"/>
-      <c r="AC32" s="148"/>
-      <c r="AD32" s="148"/>
-      <c r="AE32" s="148"/>
-      <c r="AF32" s="148"/>
-      <c r="AG32" s="148"/>
-      <c r="AH32" s="148"/>
-      <c r="AI32" s="148"/>
-      <c r="AJ32" s="148"/>
-      <c r="AK32" s="148"/>
-      <c r="AL32" s="148"/>
-      <c r="AM32" s="148"/>
-      <c r="AN32" s="148"/>
-      <c r="AO32" s="148"/>
-      <c r="AP32" s="148"/>
-      <c r="AQ32" s="148"/>
-      <c r="AR32" s="149"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="155"/>
+      <c r="P32" s="155"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="155"/>
+      <c r="S32" s="155"/>
+      <c r="T32" s="155"/>
+      <c r="U32" s="155"/>
+      <c r="V32" s="155"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="155"/>
+      <c r="Y32" s="155"/>
+      <c r="Z32" s="155"/>
+      <c r="AA32" s="155"/>
+      <c r="AB32" s="155"/>
+      <c r="AC32" s="155"/>
+      <c r="AD32" s="155"/>
+      <c r="AE32" s="155"/>
+      <c r="AF32" s="155"/>
+      <c r="AG32" s="155"/>
+      <c r="AH32" s="155"/>
+      <c r="AI32" s="155"/>
+      <c r="AJ32" s="155"/>
+      <c r="AK32" s="155"/>
+      <c r="AL32" s="155"/>
+      <c r="AM32" s="155"/>
+      <c r="AN32" s="155"/>
+      <c r="AO32" s="155"/>
+      <c r="AP32" s="155"/>
+      <c r="AQ32" s="155"/>
+      <c r="AR32" s="156"/>
     </row>
     <row r="33" spans="1:44" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
